--- a/library/worker_icrp119.xlsx
+++ b/library/worker_icrp119.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="1549">
   <si>
     <t xml:space="preserve">element</t>
   </si>
@@ -1798,7 +1798,7 @@
     <t xml:space="preserve">60.20 d</t>
   </si>
   <si>
-    <t xml:space="preserve">Sb-124n</t>
+    <t xml:space="preserve">Sb-124m</t>
   </si>
   <si>
     <t xml:space="preserve">20.2 m</t>
@@ -4736,7 +4736,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4788,12 +4788,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4934,7 +4928,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5025,19 +5019,19 @@
   </sheetPr>
   <dimension ref="A1:I1413"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B397" activeCellId="0" sqref="B397"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1348" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1369" activeCellId="0" sqref="D1369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.28"/>
   </cols>
@@ -5176,8 +5170,12 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
@@ -5222,8 +5220,12 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
@@ -5316,8 +5318,12 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
@@ -5335,8 +5341,12 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
@@ -5468,8 +5478,12 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
@@ -5516,8 +5530,12 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
@@ -5535,8 +5553,12 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
@@ -5581,8 +5603,12 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D24" s="6" t="s">
         <v>20</v>
       </c>
@@ -5600,8 +5626,12 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D25" s="6" t="s">
         <v>21</v>
       </c>
@@ -5648,8 +5678,12 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D27" s="6" t="s">
         <v>20</v>
       </c>
@@ -5694,8 +5728,12 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D29" s="6" t="s">
         <v>20</v>
       </c>
@@ -5742,8 +5780,12 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="D31" s="6" t="s">
         <v>20</v>
       </c>
@@ -5765,8 +5807,12 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="D32" s="6" t="s">
         <v>58</v>
       </c>
@@ -5813,8 +5859,12 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>20</v>
       </c>
@@ -5859,8 +5909,12 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D36" s="6" t="s">
         <v>20</v>
       </c>
@@ -5905,8 +5959,12 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D38" s="6" t="s">
         <v>20</v>
       </c>
@@ -6364,8 +6422,12 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D55" s="6" t="s">
         <v>20</v>
       </c>
@@ -6383,8 +6445,12 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D56" s="6" t="s">
         <v>21</v>
       </c>
@@ -6429,8 +6495,12 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="B58" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="D58" s="6" t="s">
         <v>20</v>
       </c>
@@ -6448,8 +6518,12 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="D59" s="6" t="s">
         <v>21</v>
       </c>
@@ -6496,8 +6570,12 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="D61" s="6" t="s">
         <v>20</v>
       </c>
@@ -6542,8 +6620,12 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="D63" s="6" t="s">
         <v>20</v>
       </c>
@@ -6588,8 +6670,12 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="D65" s="6" t="s">
         <v>20</v>
       </c>
@@ -6636,8 +6722,12 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="D67" s="6" t="s">
         <v>20</v>
       </c>
@@ -6659,8 +6749,12 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="D68" s="6" t="s">
         <v>21</v>
       </c>
@@ -6705,8 +6799,12 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D70" s="6" t="s">
         <v>20</v>
       </c>
@@ -6728,8 +6826,12 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+      <c r="B71" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D71" s="6" t="s">
         <v>21</v>
       </c>
@@ -6774,8 +6876,12 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="D73" s="6" t="s">
         <v>20</v>
       </c>
@@ -6797,8 +6903,12 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
+      <c r="B74" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="D74" s="6" t="s">
         <v>21</v>
       </c>
@@ -6845,8 +6955,12 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
+      <c r="B76" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="D76" s="6" t="s">
         <v>20</v>
       </c>
@@ -6891,8 +7005,12 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
+      <c r="B78" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="D78" s="6" t="s">
         <v>20</v>
       </c>
@@ -6937,8 +7055,12 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="D80" s="6" t="s">
         <v>20</v>
       </c>
@@ -6983,8 +7105,12 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
+      <c r="B82" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="D82" s="6" t="s">
         <v>20</v>
       </c>
@@ -7029,8 +7155,12 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="B84" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="D84" s="6" t="s">
         <v>20</v>
       </c>
@@ -7075,8 +7205,12 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="D86" s="6" t="s">
         <v>20</v>
       </c>
@@ -7123,8 +7257,12 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="D88" s="6" t="s">
         <v>20</v>
       </c>
@@ -7169,8 +7307,12 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
+      <c r="B90" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D90" s="6" t="s">
         <v>20</v>
       </c>
@@ -7215,8 +7357,12 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
+      <c r="B92" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="D92" s="6" t="s">
         <v>20</v>
       </c>
@@ -7261,8 +7407,12 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D94" s="6" t="s">
         <v>20</v>
       </c>
@@ -7309,8 +7459,12 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+      <c r="B96" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D96" s="6" t="s">
         <v>21</v>
       </c>
@@ -7359,8 +7513,12 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
+      <c r="B98" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="D98" s="6" t="s">
         <v>21</v>
       </c>
@@ -7409,8 +7567,12 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
+      <c r="B100" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D100" s="6" t="s">
         <v>21</v>
       </c>
@@ -7459,8 +7621,12 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
+      <c r="B102" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="D102" s="6" t="s">
         <v>21</v>
       </c>
@@ -7509,8 +7675,12 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+      <c r="B104" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="D104" s="6" t="s">
         <v>21</v>
       </c>
@@ -7559,8 +7729,12 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
+      <c r="B106" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D106" s="6" t="s">
         <v>21</v>
       </c>
@@ -7609,8 +7783,12 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
+      <c r="B108" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D108" s="6" t="s">
         <v>21</v>
       </c>
@@ -7659,8 +7837,12 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
+      <c r="B110" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="D110" s="6" t="s">
         <v>21</v>
       </c>
@@ -7709,8 +7891,12 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
+      <c r="B112" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="D112" s="6" t="s">
         <v>21</v>
       </c>
@@ -7761,8 +7947,12 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
+      <c r="B114" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="D114" s="6" t="s">
         <v>20</v>
       </c>
@@ -7807,8 +7997,12 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
+      <c r="B116" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="D116" s="6" t="s">
         <v>20</v>
       </c>
@@ -7853,8 +8047,12 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
+      <c r="B118" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="D118" s="6" t="s">
         <v>20</v>
       </c>
@@ -7899,8 +8097,12 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
+      <c r="B120" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="D120" s="6" t="s">
         <v>20</v>
       </c>
@@ -7945,8 +8147,12 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
+      <c r="B122" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D122" s="6" t="s">
         <v>20</v>
       </c>
@@ -7991,8 +8197,12 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
+      <c r="B124" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="D124" s="6" t="s">
         <v>20</v>
       </c>
@@ -8039,8 +8249,12 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
+      <c r="B126" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="D126" s="6" t="s">
         <v>20</v>
       </c>
@@ -8058,8 +8272,12 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
+      <c r="B127" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="D127" s="6" t="s">
         <v>21</v>
       </c>
@@ -8104,8 +8322,12 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
+      <c r="B129" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="D129" s="6" t="s">
         <v>20</v>
       </c>
@@ -8123,8 +8345,12 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
+      <c r="B130" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="D130" s="6" t="s">
         <v>21</v>
       </c>
@@ -8169,8 +8395,12 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
+      <c r="B132" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="D132" s="6" t="s">
         <v>20</v>
       </c>
@@ -8188,8 +8418,12 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
+      <c r="B133" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="D133" s="6" t="s">
         <v>21</v>
       </c>
@@ -8234,8 +8468,12 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="B135" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="D135" s="6" t="s">
         <v>20</v>
       </c>
@@ -8253,8 +8491,12 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
+      <c r="B136" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="D136" s="6" t="s">
         <v>21</v>
       </c>
@@ -8492,8 +8734,12 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
+      <c r="B145" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="D145" s="6" t="s">
         <v>20</v>
       </c>
@@ -8538,8 +8784,12 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
+      <c r="B147" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="D147" s="6" t="s">
         <v>20</v>
       </c>
@@ -8584,8 +8834,12 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
+      <c r="B149" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="D149" s="6" t="s">
         <v>20</v>
       </c>
@@ -8630,8 +8884,12 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
+      <c r="B151" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="D151" s="6" t="s">
         <v>20</v>
       </c>
@@ -8676,8 +8934,12 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
+      <c r="B153" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="D153" s="6" t="s">
         <v>20</v>
       </c>
@@ -8722,8 +8984,12 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
+      <c r="B155" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="D155" s="6" t="s">
         <v>20</v>
       </c>
@@ -8768,8 +9034,12 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
+      <c r="B157" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="D157" s="6" t="s">
         <v>20</v>
       </c>
@@ -8816,8 +9086,12 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
+      <c r="B159" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="D159" s="6" t="s">
         <v>20</v>
       </c>
@@ -8862,8 +9136,12 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="10"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
+      <c r="B161" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D161" s="6" t="s">
         <v>20</v>
       </c>
@@ -8908,8 +9186,12 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="10"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
+      <c r="B163" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="D163" s="6" t="s">
         <v>20</v>
       </c>
@@ -8954,8 +9236,12 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
+      <c r="B165" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="D165" s="6" t="s">
         <v>20</v>
       </c>
@@ -9000,8 +9286,12 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="10"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
+      <c r="B167" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="D167" s="6" t="s">
         <v>20</v>
       </c>
@@ -9046,8 +9336,12 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
+      <c r="B169" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="D169" s="6" t="s">
         <v>20</v>
       </c>
@@ -9092,8 +9386,12 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
+      <c r="B171" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="D171" s="6" t="s">
         <v>20</v>
       </c>
@@ -9138,8 +9436,12 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
+      <c r="B173" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="D173" s="6" t="s">
         <v>20</v>
       </c>
@@ -9431,8 +9733,12 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
+      <c r="B184" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="D184" s="6" t="s">
         <v>20</v>
       </c>
@@ -9481,8 +9787,12 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
+      <c r="B186" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="D186" s="6" t="s">
         <v>20</v>
       </c>
@@ -9531,8 +9841,12 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="10"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
+      <c r="B188" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="D188" s="6" t="s">
         <v>20</v>
       </c>
@@ -9581,8 +9895,12 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="10"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
+      <c r="B190" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="D190" s="6" t="s">
         <v>20</v>
       </c>
@@ -9631,8 +9949,12 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
+      <c r="B192" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="D192" s="6" t="s">
         <v>20</v>
       </c>
@@ -9681,8 +10003,12 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
+      <c r="B194" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="D194" s="6" t="s">
         <v>20</v>
       </c>
@@ -9731,8 +10057,12 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
+      <c r="B196" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="D196" s="6" t="s">
         <v>20</v>
       </c>
@@ -9781,8 +10111,12 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
+      <c r="B198" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="D198" s="6" t="s">
         <v>20</v>
       </c>
@@ -9833,8 +10167,12 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
+      <c r="B200" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="D200" s="6" t="s">
         <v>20</v>
       </c>
@@ -9879,8 +10217,12 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
+      <c r="B202" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="D202" s="6" t="s">
         <v>20</v>
       </c>
@@ -9925,8 +10267,12 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
+      <c r="B204" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="D204" s="6" t="s">
         <v>20</v>
       </c>
@@ -9971,8 +10317,12 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="10"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
+      <c r="B206" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="D206" s="6" t="s">
         <v>20</v>
       </c>
@@ -10017,8 +10367,12 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="10"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
+      <c r="B208" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="D208" s="6" t="s">
         <v>20</v>
       </c>
@@ -10063,8 +10417,12 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="10"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
+      <c r="B210" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="D210" s="6" t="s">
         <v>20</v>
       </c>
@@ -10109,8 +10467,12 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="10"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
+      <c r="B212" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="D212" s="6" t="s">
         <v>20</v>
       </c>
@@ -10155,8 +10517,12 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="10"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
+      <c r="B214" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="D214" s="6" t="s">
         <v>20</v>
       </c>
@@ -10201,8 +10567,12 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="10"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
+      <c r="B216" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>281</v>
+      </c>
       <c r="D216" s="6" t="s">
         <v>20</v>
       </c>
@@ -10247,8 +10617,12 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="10"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
+      <c r="B218" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="D218" s="6" t="s">
         <v>20</v>
       </c>
@@ -10567,8 +10941,12 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="10"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
+      <c r="B230" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="D230" s="6" t="s">
         <v>21</v>
       </c>
@@ -10617,8 +10995,12 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="10"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
+      <c r="B232" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="D232" s="6" t="s">
         <v>21</v>
       </c>
@@ -10667,8 +11049,12 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="10"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
+      <c r="B234" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="D234" s="6" t="s">
         <v>21</v>
       </c>
@@ -10717,8 +11103,12 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="10"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
+      <c r="B236" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="D236" s="6" t="s">
         <v>21</v>
       </c>
@@ -10767,8 +11157,12 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="10"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
+      <c r="B238" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="D238" s="6" t="s">
         <v>21</v>
       </c>
@@ -10817,8 +11211,12 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="10"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
+      <c r="B240" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="D240" s="6" t="s">
         <v>21</v>
       </c>
@@ -10867,8 +11265,12 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="10"/>
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
+      <c r="B242" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="D242" s="6" t="s">
         <v>21</v>
       </c>
@@ -10917,8 +11319,12 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="10"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
+      <c r="B244" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>320</v>
+      </c>
       <c r="D244" s="6" t="s">
         <v>21</v>
       </c>
@@ -10967,8 +11373,12 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="10"/>
-      <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
+      <c r="B246" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>322</v>
+      </c>
       <c r="D246" s="6" t="s">
         <v>21</v>
       </c>
@@ -11017,8 +11427,12 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="10"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
+      <c r="B248" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="D248" s="6" t="s">
         <v>21</v>
       </c>
@@ -11067,8 +11481,12 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="10"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
+      <c r="B250" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="D250" s="6" t="s">
         <v>21</v>
       </c>
@@ -11119,8 +11537,12 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="10"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
+      <c r="B252" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>329</v>
+      </c>
       <c r="D252" s="6" t="s">
         <v>21</v>
       </c>
@@ -11165,8 +11587,12 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="10"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
+      <c r="B254" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="D254" s="6" t="s">
         <v>21</v>
       </c>
@@ -11211,8 +11637,12 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="10"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
+      <c r="B256" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>333</v>
+      </c>
       <c r="D256" s="6" t="s">
         <v>21</v>
       </c>
@@ -11257,8 +11687,12 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="10"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
+      <c r="B258" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>335</v>
+      </c>
       <c r="D258" s="6" t="s">
         <v>21</v>
       </c>
@@ -11303,8 +11737,12 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="10"/>
-      <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
+      <c r="B260" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>337</v>
+      </c>
       <c r="D260" s="6" t="s">
         <v>21</v>
       </c>
@@ -11349,8 +11787,12 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="10"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
+      <c r="B262" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="D262" s="6" t="s">
         <v>21</v>
       </c>
@@ -11395,8 +11837,12 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="10"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
+      <c r="B264" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="D264" s="6" t="s">
         <v>21</v>
       </c>
@@ -11441,8 +11887,12 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="10"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
+      <c r="B266" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>343</v>
+      </c>
       <c r="D266" s="6" t="s">
         <v>21</v>
       </c>
@@ -11487,8 +11937,12 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="10"/>
-      <c r="B268" s="6"/>
-      <c r="C268" s="6"/>
+      <c r="B268" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="D268" s="6" t="s">
         <v>21</v>
       </c>
@@ -11533,8 +11987,12 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="10"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
+      <c r="B270" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>347</v>
+      </c>
       <c r="D270" s="6" t="s">
         <v>21</v>
       </c>
@@ -11579,8 +12037,12 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="10"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
+      <c r="B272" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="D272" s="6" t="s">
         <v>21</v>
       </c>
@@ -11625,8 +12087,12 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="10"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
+      <c r="B274" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="D274" s="6" t="s">
         <v>21</v>
       </c>
@@ -11673,8 +12139,12 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="10"/>
-      <c r="B276" s="6"/>
-      <c r="C276" s="6"/>
+      <c r="B276" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>354</v>
+      </c>
       <c r="D276" s="6" t="s">
         <v>20</v>
       </c>
@@ -11692,8 +12162,12 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="10"/>
-      <c r="B277" s="6"/>
-      <c r="C277" s="6"/>
+      <c r="B277" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>354</v>
+      </c>
       <c r="D277" s="6" t="s">
         <v>21</v>
       </c>
@@ -11738,8 +12212,12 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="10"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
+      <c r="B279" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>356</v>
+      </c>
       <c r="D279" s="6" t="s">
         <v>20</v>
       </c>
@@ -11757,8 +12235,12 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="10"/>
-      <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
+      <c r="B280" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>356</v>
+      </c>
       <c r="D280" s="6" t="s">
         <v>21</v>
       </c>
@@ -11803,8 +12285,12 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="10"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
+      <c r="B282" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="D282" s="6" t="s">
         <v>20</v>
       </c>
@@ -11822,8 +12308,12 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="10"/>
-      <c r="B283" s="6"/>
-      <c r="C283" s="6"/>
+      <c r="B283" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="D283" s="6" t="s">
         <v>21</v>
       </c>
@@ -11868,8 +12358,12 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="10"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="6"/>
+      <c r="B285" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="D285" s="6" t="s">
         <v>20</v>
       </c>
@@ -11887,8 +12381,12 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="10"/>
-      <c r="B286" s="6"/>
-      <c r="C286" s="6"/>
+      <c r="B286" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="D286" s="6" t="s">
         <v>21</v>
       </c>
@@ -11933,8 +12431,12 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="10"/>
-      <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
+      <c r="B288" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="D288" s="6" t="s">
         <v>20</v>
       </c>
@@ -11952,8 +12454,12 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="10"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="6"/>
+      <c r="B289" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="D289" s="6" t="s">
         <v>21</v>
       </c>
@@ -11998,8 +12504,12 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="10"/>
-      <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
+      <c r="B291" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="D291" s="6" t="s">
         <v>20</v>
       </c>
@@ -12017,8 +12527,12 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="10"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
+      <c r="B292" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="D292" s="6" t="s">
         <v>21</v>
       </c>
@@ -12065,8 +12579,12 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="10"/>
-      <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
+      <c r="B294" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>367</v>
+      </c>
       <c r="D294" s="6" t="s">
         <v>21</v>
       </c>
@@ -12111,8 +12629,12 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="10"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
+      <c r="B296" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>369</v>
+      </c>
       <c r="D296" s="6" t="s">
         <v>21</v>
       </c>
@@ -12157,8 +12679,12 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="10"/>
-      <c r="B298" s="6"/>
-      <c r="C298" s="6"/>
+      <c r="B298" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="D298" s="6" t="s">
         <v>21</v>
       </c>
@@ -12203,8 +12729,12 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="10"/>
-      <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
+      <c r="B300" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="D300" s="6" t="s">
         <v>21</v>
       </c>
@@ -12249,8 +12779,12 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="10"/>
-      <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
+      <c r="B302" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="D302" s="6" t="s">
         <v>21</v>
       </c>
@@ -12295,8 +12829,12 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="10"/>
-      <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
+      <c r="B304" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="D304" s="6" t="s">
         <v>21</v>
       </c>
@@ -12341,8 +12879,12 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="10"/>
-      <c r="B306" s="6"/>
-      <c r="C306" s="6"/>
+      <c r="B306" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="D306" s="6" t="s">
         <v>21</v>
       </c>
@@ -12387,8 +12929,12 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="10"/>
-      <c r="B308" s="6"/>
-      <c r="C308" s="6"/>
+      <c r="B308" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>381</v>
+      </c>
       <c r="D308" s="6" t="s">
         <v>21</v>
       </c>
@@ -12433,8 +12979,12 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="10"/>
-      <c r="B310" s="6"/>
-      <c r="C310" s="6"/>
+      <c r="B310" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="D310" s="6" t="s">
         <v>21</v>
       </c>
@@ -12479,8 +13029,12 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="10"/>
-      <c r="B312" s="6"/>
-      <c r="C312" s="6"/>
+      <c r="B312" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="D312" s="6" t="s">
         <v>21</v>
       </c>
@@ -12525,8 +13079,12 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="10"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
+      <c r="B314" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="D314" s="6" t="s">
         <v>21</v>
       </c>
@@ -12573,8 +13131,12 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="10"/>
-      <c r="B316" s="6"/>
-      <c r="C316" s="6"/>
+      <c r="B316" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="D316" s="6" t="s">
         <v>21</v>
       </c>
@@ -12623,8 +13185,12 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="10"/>
-      <c r="B318" s="6"/>
-      <c r="C318" s="6"/>
+      <c r="B318" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="D318" s="6" t="s">
         <v>21</v>
       </c>
@@ -12673,8 +13239,12 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="10"/>
-      <c r="B320" s="6"/>
-      <c r="C320" s="6"/>
+      <c r="B320" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="D320" s="6" t="s">
         <v>21</v>
       </c>
@@ -12723,8 +13293,12 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="10"/>
-      <c r="B322" s="6"/>
-      <c r="C322" s="6"/>
+      <c r="B322" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="D322" s="6" t="s">
         <v>21</v>
       </c>
@@ -12773,8 +13347,12 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="10"/>
-      <c r="B324" s="6"/>
-      <c r="C324" s="6"/>
+      <c r="B324" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>398</v>
+      </c>
       <c r="D324" s="6" t="s">
         <v>21</v>
       </c>
@@ -12825,8 +13403,12 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="10"/>
-      <c r="B326" s="6"/>
-      <c r="C326" s="6"/>
+      <c r="B326" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="D326" s="6" t="s">
         <v>20</v>
       </c>
@@ -12871,8 +13453,12 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="10"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="6"/>
+      <c r="B328" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="D328" s="6" t="s">
         <v>20</v>
       </c>
@@ -12917,8 +13503,12 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="10"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
+      <c r="B330" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="D330" s="6" t="s">
         <v>20</v>
       </c>
@@ -12963,8 +13553,12 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="10"/>
-      <c r="B332" s="6"/>
-      <c r="C332" s="6"/>
+      <c r="B332" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>407</v>
+      </c>
       <c r="D332" s="6" t="s">
         <v>20</v>
       </c>
@@ -13009,8 +13603,12 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="10"/>
-      <c r="B334" s="6"/>
-      <c r="C334" s="6"/>
+      <c r="B334" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>409</v>
+      </c>
       <c r="D334" s="6" t="s">
         <v>20</v>
       </c>
@@ -13055,8 +13653,12 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="10"/>
-      <c r="B336" s="6"/>
-      <c r="C336" s="6"/>
+      <c r="B336" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>411</v>
+      </c>
       <c r="D336" s="6" t="s">
         <v>20</v>
       </c>
@@ -13101,8 +13703,12 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="10"/>
-      <c r="B338" s="6"/>
-      <c r="C338" s="6"/>
+      <c r="B338" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="D338" s="6" t="s">
         <v>20</v>
       </c>
@@ -13147,8 +13753,12 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="10"/>
-      <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
+      <c r="B340" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="D340" s="6" t="s">
         <v>20</v>
       </c>
@@ -13193,8 +13803,12 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="10"/>
-      <c r="B342" s="6"/>
-      <c r="C342" s="6"/>
+      <c r="B342" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="D342" s="6" t="s">
         <v>20</v>
       </c>
@@ -13239,8 +13853,12 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="10"/>
-      <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
+      <c r="B344" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>418</v>
+      </c>
       <c r="D344" s="6" t="s">
         <v>20</v>
       </c>
@@ -13285,8 +13903,12 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="10"/>
-      <c r="B346" s="6"/>
-      <c r="C346" s="6"/>
+      <c r="B346" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="D346" s="6" t="s">
         <v>20</v>
       </c>
@@ -13331,8 +13953,12 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="10"/>
-      <c r="B348" s="6"/>
-      <c r="C348" s="6"/>
+      <c r="B348" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="D348" s="6" t="s">
         <v>20</v>
       </c>
@@ -13377,8 +14003,12 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="10"/>
-      <c r="B350" s="6"/>
-      <c r="C350" s="6"/>
+      <c r="B350" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="D350" s="6" t="s">
         <v>20</v>
       </c>
@@ -13423,8 +14053,12 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="10"/>
-      <c r="B352" s="6"/>
-      <c r="C352" s="6"/>
+      <c r="B352" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="D352" s="6" t="s">
         <v>20</v>
       </c>
@@ -13469,8 +14103,12 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="10"/>
-      <c r="B354" s="6"/>
-      <c r="C354" s="6"/>
+      <c r="B354" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>428</v>
+      </c>
       <c r="D354" s="6" t="s">
         <v>20</v>
       </c>
@@ -13517,8 +14155,12 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="10"/>
-      <c r="B356" s="6"/>
-      <c r="C356" s="6"/>
+      <c r="B356" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="D356" s="6" t="s">
         <v>20</v>
       </c>
@@ -13536,8 +14178,12 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="10"/>
-      <c r="B357" s="6"/>
-      <c r="C357" s="6"/>
+      <c r="B357" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="D357" s="6" t="s">
         <v>21</v>
       </c>
@@ -13582,8 +14228,12 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="10"/>
-      <c r="B359" s="6"/>
-      <c r="C359" s="6"/>
+      <c r="B359" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="D359" s="6" t="s">
         <v>20</v>
       </c>
@@ -13601,8 +14251,12 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="10"/>
-      <c r="B360" s="6"/>
-      <c r="C360" s="6"/>
+      <c r="B360" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="D360" s="6" t="s">
         <v>21</v>
       </c>
@@ -13647,8 +14301,12 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="10"/>
-      <c r="B362" s="6"/>
-      <c r="C362" s="6"/>
+      <c r="B362" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="D362" s="6" t="s">
         <v>20</v>
       </c>
@@ -13666,8 +14324,12 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="10"/>
-      <c r="B363" s="6"/>
-      <c r="C363" s="6"/>
+      <c r="B363" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="D363" s="6" t="s">
         <v>21</v>
       </c>
@@ -13712,8 +14374,12 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="10"/>
-      <c r="B365" s="6"/>
-      <c r="C365" s="6"/>
+      <c r="B365" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="D365" s="6" t="s">
         <v>20</v>
       </c>
@@ -13731,8 +14397,12 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="10"/>
-      <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
+      <c r="B366" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="D366" s="6" t="s">
         <v>21</v>
       </c>
@@ -13777,8 +14447,12 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="10"/>
-      <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
+      <c r="B368" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="D368" s="6" t="s">
         <v>20</v>
       </c>
@@ -13796,8 +14470,12 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="10"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
+      <c r="B369" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="D369" s="6" t="s">
         <v>21</v>
       </c>
@@ -13844,8 +14522,12 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="10"/>
-      <c r="B371" s="6"/>
-      <c r="C371" s="6"/>
+      <c r="B371" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>442</v>
+      </c>
       <c r="D371" s="6" t="s">
         <v>20</v>
       </c>
@@ -13863,8 +14545,12 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="10"/>
-      <c r="B372" s="6"/>
-      <c r="C372" s="6"/>
+      <c r="B372" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>442</v>
+      </c>
       <c r="D372" s="6" t="s">
         <v>21</v>
       </c>
@@ -13909,8 +14595,12 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="10"/>
-      <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
+      <c r="B374" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="D374" s="6" t="s">
         <v>20</v>
       </c>
@@ -13928,8 +14618,12 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="10"/>
-      <c r="B375" s="6"/>
-      <c r="C375" s="6"/>
+      <c r="B375" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="D375" s="6" t="s">
         <v>21</v>
       </c>
@@ -13974,8 +14668,12 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="10"/>
-      <c r="B377" s="6"/>
-      <c r="C377" s="6"/>
+      <c r="B377" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="D377" s="6" t="s">
         <v>20</v>
       </c>
@@ -13993,8 +14691,12 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="10"/>
-      <c r="B378" s="6"/>
-      <c r="C378" s="6"/>
+      <c r="B378" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="D378" s="6" t="s">
         <v>21</v>
       </c>
@@ -14039,8 +14741,12 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="10"/>
-      <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
+      <c r="B380" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="D380" s="6" t="s">
         <v>20</v>
       </c>
@@ -14058,8 +14764,12 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="10"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
+      <c r="B381" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="D381" s="6" t="s">
         <v>21</v>
       </c>
@@ -14104,8 +14814,12 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="10"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
+      <c r="B383" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>450</v>
+      </c>
       <c r="D383" s="6" t="s">
         <v>20</v>
       </c>
@@ -14123,8 +14837,12 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="10"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
+      <c r="B384" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>450</v>
+      </c>
       <c r="D384" s="6" t="s">
         <v>21</v>
       </c>
@@ -14169,8 +14887,12 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="10"/>
-      <c r="B386" s="6"/>
-      <c r="C386" s="6"/>
+      <c r="B386" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="D386" s="6" t="s">
         <v>20</v>
       </c>
@@ -14188,8 +14910,12 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="10"/>
-      <c r="B387" s="6"/>
-      <c r="C387" s="6"/>
+      <c r="B387" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="D387" s="6" t="s">
         <v>21</v>
       </c>
@@ -14234,8 +14960,12 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="10"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
+      <c r="B389" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>454</v>
+      </c>
       <c r="D389" s="6" t="s">
         <v>20</v>
       </c>
@@ -14253,8 +14983,12 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="10"/>
-      <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
+      <c r="B390" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>454</v>
+      </c>
       <c r="D390" s="6" t="s">
         <v>21</v>
       </c>
@@ -14299,8 +15033,12 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="10"/>
-      <c r="B392" s="6"/>
-      <c r="C392" s="6"/>
+      <c r="B392" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>456</v>
+      </c>
       <c r="D392" s="6" t="s">
         <v>20</v>
       </c>
@@ -14318,8 +15056,12 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="10"/>
-      <c r="B393" s="6"/>
-      <c r="C393" s="6"/>
+      <c r="B393" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>456</v>
+      </c>
       <c r="D393" s="6" t="s">
         <v>21</v>
       </c>
@@ -14364,8 +15106,12 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="10"/>
-      <c r="B395" s="6"/>
-      <c r="C395" s="6"/>
+      <c r="B395" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="D395" s="6" t="s">
         <v>20</v>
       </c>
@@ -14383,8 +15129,12 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="10"/>
-      <c r="B396" s="6"/>
-      <c r="C396" s="6"/>
+      <c r="B396" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="D396" s="6" t="s">
         <v>21</v>
       </c>
@@ -14429,8 +15179,12 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="10"/>
-      <c r="B398" s="6"/>
-      <c r="C398" s="6"/>
+      <c r="B398" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>460</v>
+      </c>
       <c r="D398" s="6" t="s">
         <v>20</v>
       </c>
@@ -14448,8 +15202,12 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="10"/>
-      <c r="B399" s="6"/>
-      <c r="C399" s="6"/>
+      <c r="B399" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>460</v>
+      </c>
       <c r="D399" s="6" t="s">
         <v>21</v>
       </c>
@@ -14494,8 +15252,12 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="10"/>
-      <c r="B401" s="6"/>
-      <c r="C401" s="6"/>
+      <c r="B401" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="D401" s="6" t="s">
         <v>20</v>
       </c>
@@ -14513,8 +15275,12 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="10"/>
-      <c r="B402" s="6"/>
-      <c r="C402" s="6"/>
+      <c r="B402" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="D402" s="6" t="s">
         <v>21</v>
       </c>
@@ -14561,8 +15327,12 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="10"/>
-      <c r="B404" s="6"/>
-      <c r="C404" s="6"/>
+      <c r="B404" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="D404" s="6" t="s">
         <v>20</v>
       </c>
@@ -14580,8 +15350,12 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="10"/>
-      <c r="B405" s="6"/>
-      <c r="C405" s="6"/>
+      <c r="B405" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="D405" s="6" t="s">
         <v>21</v>
       </c>
@@ -14626,8 +15400,12 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="10"/>
-      <c r="B407" s="6"/>
-      <c r="C407" s="6"/>
+      <c r="B407" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>467</v>
+      </c>
       <c r="D407" s="6" t="s">
         <v>20</v>
       </c>
@@ -14645,8 +15423,12 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="10"/>
-      <c r="B408" s="6"/>
-      <c r="C408" s="6"/>
+      <c r="B408" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>467</v>
+      </c>
       <c r="D408" s="6" t="s">
         <v>21</v>
       </c>
@@ -14691,8 +15473,12 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="10"/>
-      <c r="B410" s="6"/>
-      <c r="C410" s="6"/>
+      <c r="B410" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="D410" s="6" t="s">
         <v>20</v>
       </c>
@@ -14710,8 +15496,12 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="10"/>
-      <c r="B411" s="6"/>
-      <c r="C411" s="6"/>
+      <c r="B411" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="D411" s="6" t="s">
         <v>21</v>
       </c>
@@ -14756,8 +15546,12 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="10"/>
-      <c r="B413" s="6"/>
-      <c r="C413" s="6"/>
+      <c r="B413" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="D413" s="6" t="s">
         <v>20</v>
       </c>
@@ -14775,8 +15569,12 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="10"/>
-      <c r="B414" s="6"/>
-      <c r="C414" s="6"/>
+      <c r="B414" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C414" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="D414" s="6" t="s">
         <v>21</v>
       </c>
@@ -14821,8 +15619,12 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="10"/>
-      <c r="B416" s="6"/>
-      <c r="C416" s="6"/>
+      <c r="B416" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C416" s="6" t="s">
+        <v>473</v>
+      </c>
       <c r="D416" s="6" t="s">
         <v>20</v>
       </c>
@@ -14840,8 +15642,12 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="10"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
+      <c r="B417" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>473</v>
+      </c>
       <c r="D417" s="6" t="s">
         <v>21</v>
       </c>
@@ -14888,8 +15694,12 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="10"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="6"/>
+      <c r="B419" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="D419" s="6" t="s">
         <v>20</v>
       </c>
@@ -14907,8 +15717,12 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="10"/>
-      <c r="B420" s="6"/>
-      <c r="C420" s="6"/>
+      <c r="B420" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="D420" s="6" t="s">
         <v>21</v>
       </c>
@@ -14953,8 +15767,12 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="10"/>
-      <c r="B422" s="6"/>
-      <c r="C422" s="6"/>
+      <c r="B422" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>478</v>
+      </c>
       <c r="D422" s="6" t="s">
         <v>20</v>
       </c>
@@ -14972,8 +15790,12 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="10"/>
-      <c r="B423" s="6"/>
-      <c r="C423" s="6"/>
+      <c r="B423" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C423" s="6" t="s">
+        <v>478</v>
+      </c>
       <c r="D423" s="6" t="s">
         <v>21</v>
       </c>
@@ -15018,8 +15840,12 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="10"/>
-      <c r="B425" s="6"/>
-      <c r="C425" s="6"/>
+      <c r="B425" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C425" s="6" t="s">
+        <v>480</v>
+      </c>
       <c r="D425" s="6" t="s">
         <v>20</v>
       </c>
@@ -15037,8 +15863,12 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="10"/>
-      <c r="B426" s="6"/>
-      <c r="C426" s="6"/>
+      <c r="B426" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C426" s="6" t="s">
+        <v>480</v>
+      </c>
       <c r="D426" s="6" t="s">
         <v>21</v>
       </c>
@@ -15083,8 +15913,12 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="10"/>
-      <c r="B428" s="6"/>
-      <c r="C428" s="6"/>
+      <c r="B428" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>482</v>
+      </c>
       <c r="D428" s="6" t="s">
         <v>20</v>
       </c>
@@ -15102,8 +15936,12 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="10"/>
-      <c r="B429" s="6"/>
-      <c r="C429" s="6"/>
+      <c r="B429" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C429" s="6" t="s">
+        <v>482</v>
+      </c>
       <c r="D429" s="6" t="s">
         <v>21</v>
       </c>
@@ -15148,8 +15986,12 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="10"/>
-      <c r="B431" s="6"/>
-      <c r="C431" s="6"/>
+      <c r="B431" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C431" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="D431" s="6" t="s">
         <v>20</v>
       </c>
@@ -15167,8 +16009,12 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="10"/>
-      <c r="B432" s="6"/>
-      <c r="C432" s="6"/>
+      <c r="B432" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C432" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="D432" s="6" t="s">
         <v>21</v>
       </c>
@@ -15213,8 +16059,12 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="10"/>
-      <c r="B434" s="6"/>
-      <c r="C434" s="6"/>
+      <c r="B434" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C434" s="6" t="s">
+        <v>486</v>
+      </c>
       <c r="D434" s="6" t="s">
         <v>20</v>
       </c>
@@ -15232,8 +16082,12 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="10"/>
-      <c r="B435" s="6"/>
-      <c r="C435" s="6"/>
+      <c r="B435" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C435" s="6" t="s">
+        <v>486</v>
+      </c>
       <c r="D435" s="6" t="s">
         <v>21</v>
       </c>
@@ -15278,8 +16132,12 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="10"/>
-      <c r="B437" s="6"/>
-      <c r="C437" s="6"/>
+      <c r="B437" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>488</v>
+      </c>
       <c r="D437" s="6" t="s">
         <v>20</v>
       </c>
@@ -15297,8 +16155,12 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="10"/>
-      <c r="B438" s="6"/>
-      <c r="C438" s="6"/>
+      <c r="B438" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C438" s="6" t="s">
+        <v>488</v>
+      </c>
       <c r="D438" s="6" t="s">
         <v>21</v>
       </c>
@@ -15343,8 +16205,12 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="10"/>
-      <c r="B440" s="6"/>
-      <c r="C440" s="6"/>
+      <c r="B440" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C440" s="6" t="s">
+        <v>490</v>
+      </c>
       <c r="D440" s="6" t="s">
         <v>20</v>
       </c>
@@ -15362,8 +16228,12 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="10"/>
-      <c r="B441" s="6"/>
-      <c r="C441" s="6"/>
+      <c r="B441" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C441" s="6" t="s">
+        <v>490</v>
+      </c>
       <c r="D441" s="6" t="s">
         <v>21</v>
       </c>
@@ -15408,8 +16278,12 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="10"/>
-      <c r="B443" s="6"/>
-      <c r="C443" s="6"/>
+      <c r="B443" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C443" s="6" t="s">
+        <v>492</v>
+      </c>
       <c r="D443" s="6" t="s">
         <v>20</v>
       </c>
@@ -15427,8 +16301,12 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="10"/>
-      <c r="B444" s="6"/>
-      <c r="C444" s="6"/>
+      <c r="B444" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C444" s="6" t="s">
+        <v>492</v>
+      </c>
       <c r="D444" s="6" t="s">
         <v>21</v>
       </c>
@@ -15473,8 +16351,12 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="10"/>
-      <c r="B446" s="6"/>
-      <c r="C446" s="6"/>
+      <c r="B446" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C446" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="D446" s="6" t="s">
         <v>20</v>
       </c>
@@ -15492,8 +16374,12 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="10"/>
-      <c r="B447" s="6"/>
-      <c r="C447" s="6"/>
+      <c r="B447" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C447" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="D447" s="6" t="s">
         <v>21</v>
       </c>
@@ -15538,8 +16424,12 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="10"/>
-      <c r="B449" s="6"/>
-      <c r="C449" s="6"/>
+      <c r="B449" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C449" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="D449" s="6" t="s">
         <v>20</v>
       </c>
@@ -15557,8 +16447,12 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="10"/>
-      <c r="B450" s="6"/>
-      <c r="C450" s="6"/>
+      <c r="B450" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C450" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="D450" s="6" t="s">
         <v>21</v>
       </c>
@@ -15603,8 +16497,12 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="10"/>
-      <c r="B452" s="6"/>
-      <c r="C452" s="6"/>
+      <c r="B452" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C452" s="6" t="s">
+        <v>498</v>
+      </c>
       <c r="D452" s="6" t="s">
         <v>20</v>
       </c>
@@ -15622,8 +16520,12 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="10"/>
-      <c r="B453" s="6"/>
-      <c r="C453" s="6"/>
+      <c r="B453" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C453" s="6" t="s">
+        <v>498</v>
+      </c>
       <c r="D453" s="6" t="s">
         <v>21</v>
       </c>
@@ -15670,8 +16572,12 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="10"/>
-      <c r="B455" s="6"/>
-      <c r="C455" s="6"/>
+      <c r="B455" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="D455" s="6" t="s">
         <v>20</v>
       </c>
@@ -15689,8 +16595,12 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="10"/>
-      <c r="B456" s="6"/>
-      <c r="C456" s="6"/>
+      <c r="B456" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="D456" s="6" t="s">
         <v>21</v>
       </c>
@@ -15735,8 +16645,12 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="10"/>
-      <c r="B458" s="6"/>
-      <c r="C458" s="6"/>
+      <c r="B458" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="D458" s="6" t="s">
         <v>20</v>
       </c>
@@ -15754,8 +16668,12 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="10"/>
-      <c r="B459" s="6"/>
-      <c r="C459" s="6"/>
+      <c r="B459" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C459" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="D459" s="6" t="s">
         <v>21</v>
       </c>
@@ -15800,8 +16718,12 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="10"/>
-      <c r="B461" s="6"/>
-      <c r="C461" s="6"/>
+      <c r="B461" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>505</v>
+      </c>
       <c r="D461" s="6" t="s">
         <v>20</v>
       </c>
@@ -15819,8 +16741,12 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="10"/>
-      <c r="B462" s="6"/>
-      <c r="C462" s="6"/>
+      <c r="B462" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C462" s="6" t="s">
+        <v>505</v>
+      </c>
       <c r="D462" s="6" t="s">
         <v>21</v>
       </c>
@@ -15865,8 +16791,12 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="10"/>
-      <c r="B464" s="6"/>
-      <c r="C464" s="6"/>
+      <c r="B464" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C464" s="6" t="s">
+        <v>507</v>
+      </c>
       <c r="D464" s="6" t="s">
         <v>20</v>
       </c>
@@ -15884,8 +16814,12 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="10"/>
-      <c r="B465" s="6"/>
-      <c r="C465" s="6"/>
+      <c r="B465" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C465" s="6" t="s">
+        <v>507</v>
+      </c>
       <c r="D465" s="6" t="s">
         <v>21</v>
       </c>
@@ -15930,8 +16864,12 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="10"/>
-      <c r="B467" s="6"/>
-      <c r="C467" s="6"/>
+      <c r="B467" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C467" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="D467" s="6" t="s">
         <v>20</v>
       </c>
@@ -15949,8 +16887,12 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="10"/>
-      <c r="B468" s="6"/>
-      <c r="C468" s="6"/>
+      <c r="B468" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="D468" s="6" t="s">
         <v>21</v>
       </c>
@@ -15995,8 +16937,12 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="10"/>
-      <c r="B470" s="6"/>
-      <c r="C470" s="6"/>
+      <c r="B470" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C470" s="6" t="s">
+        <v>510</v>
+      </c>
       <c r="D470" s="6" t="s">
         <v>20</v>
       </c>
@@ -16014,8 +16960,12 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="10"/>
-      <c r="B471" s="6"/>
-      <c r="C471" s="6"/>
+      <c r="B471" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C471" s="6" t="s">
+        <v>510</v>
+      </c>
       <c r="D471" s="6" t="s">
         <v>21</v>
       </c>
@@ -16060,8 +17010,12 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="10"/>
-      <c r="B473" s="6"/>
-      <c r="C473" s="6"/>
+      <c r="B473" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>512</v>
+      </c>
       <c r="D473" s="6" t="s">
         <v>20</v>
       </c>
@@ -16079,8 +17033,12 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="10"/>
-      <c r="B474" s="6"/>
-      <c r="C474" s="6"/>
+      <c r="B474" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C474" s="6" t="s">
+        <v>512</v>
+      </c>
       <c r="D474" s="6" t="s">
         <v>21</v>
       </c>
@@ -16125,8 +17083,12 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="10"/>
-      <c r="B476" s="6"/>
-      <c r="C476" s="6"/>
+      <c r="B476" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C476" s="6" t="s">
+        <v>514</v>
+      </c>
       <c r="D476" s="6" t="s">
         <v>20</v>
       </c>
@@ -16144,8 +17106,12 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="10"/>
-      <c r="B477" s="6"/>
-      <c r="C477" s="6"/>
+      <c r="B477" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C477" s="6" t="s">
+        <v>514</v>
+      </c>
       <c r="D477" s="6" t="s">
         <v>21</v>
       </c>
@@ -16190,8 +17156,12 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="10"/>
-      <c r="B479" s="6"/>
-      <c r="C479" s="6"/>
+      <c r="B479" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C479" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="D479" s="6" t="s">
         <v>20</v>
       </c>
@@ -16209,8 +17179,12 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="10"/>
-      <c r="B480" s="6"/>
-      <c r="C480" s="6"/>
+      <c r="B480" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="D480" s="6" t="s">
         <v>21</v>
       </c>
@@ -16257,8 +17231,12 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="10"/>
-      <c r="B482" s="6"/>
-      <c r="C482" s="6"/>
+      <c r="B482" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C482" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="D482" s="6" t="s">
         <v>20</v>
       </c>
@@ -16303,8 +17281,12 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="10"/>
-      <c r="B484" s="6"/>
-      <c r="C484" s="6"/>
+      <c r="B484" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C484" s="6" t="s">
+        <v>521</v>
+      </c>
       <c r="D484" s="6" t="s">
         <v>20</v>
       </c>
@@ -16349,8 +17331,12 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="10"/>
-      <c r="B486" s="6"/>
-      <c r="C486" s="6"/>
+      <c r="B486" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C486" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="D486" s="6" t="s">
         <v>20</v>
       </c>
@@ -16395,8 +17381,12 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="10"/>
-      <c r="B488" s="6"/>
-      <c r="C488" s="6"/>
+      <c r="B488" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C488" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="D488" s="6" t="s">
         <v>20</v>
       </c>
@@ -16441,8 +17431,12 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="10"/>
-      <c r="B490" s="6"/>
-      <c r="C490" s="6"/>
+      <c r="B490" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C490" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="D490" s="6" t="s">
         <v>20</v>
       </c>
@@ -16487,8 +17481,12 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="10"/>
-      <c r="B492" s="6"/>
-      <c r="C492" s="6"/>
+      <c r="B492" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C492" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="D492" s="6" t="s">
         <v>20</v>
       </c>
@@ -16533,8 +17531,12 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="10"/>
-      <c r="B494" s="6"/>
-      <c r="C494" s="6"/>
+      <c r="B494" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C494" s="6" t="s">
+        <v>531</v>
+      </c>
       <c r="D494" s="6" t="s">
         <v>20</v>
       </c>
@@ -16579,8 +17581,12 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="10"/>
-      <c r="B496" s="6"/>
-      <c r="C496" s="6"/>
+      <c r="B496" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C496" s="6" t="s">
+        <v>533</v>
+      </c>
       <c r="D496" s="6" t="s">
         <v>20</v>
       </c>
@@ -16625,8 +17631,12 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="10"/>
-      <c r="B498" s="6"/>
-      <c r="C498" s="6"/>
+      <c r="B498" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C498" s="6" t="s">
+        <v>535</v>
+      </c>
       <c r="D498" s="6" t="s">
         <v>20</v>
       </c>
@@ -16671,8 +17681,12 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="10"/>
-      <c r="B500" s="6"/>
-      <c r="C500" s="6"/>
+      <c r="B500" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C500" s="6" t="s">
+        <v>537</v>
+      </c>
       <c r="D500" s="6" t="s">
         <v>20</v>
       </c>
@@ -16717,8 +17731,12 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="10"/>
-      <c r="B502" s="6"/>
-      <c r="C502" s="6"/>
+      <c r="B502" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C502" s="6" t="s">
+        <v>539</v>
+      </c>
       <c r="D502" s="6" t="s">
         <v>20</v>
       </c>
@@ -16763,8 +17781,12 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="10"/>
-      <c r="B504" s="6"/>
-      <c r="C504" s="6"/>
+      <c r="B504" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C504" s="6" t="s">
+        <v>541</v>
+      </c>
       <c r="D504" s="6" t="s">
         <v>20</v>
       </c>
@@ -16809,8 +17831,12 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="10"/>
-      <c r="B506" s="6"/>
-      <c r="C506" s="6"/>
+      <c r="B506" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C506" s="6" t="s">
+        <v>543</v>
+      </c>
       <c r="D506" s="6" t="s">
         <v>20</v>
       </c>
@@ -16857,8 +17883,12 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="10"/>
-      <c r="B508" s="6"/>
-      <c r="C508" s="6"/>
+      <c r="B508" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C508" s="6" t="s">
+        <v>546</v>
+      </c>
       <c r="D508" s="6" t="s">
         <v>20</v>
       </c>
@@ -16903,8 +17933,12 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="10"/>
-      <c r="B510" s="6"/>
-      <c r="C510" s="6"/>
+      <c r="B510" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C510" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="D510" s="6" t="s">
         <v>20</v>
       </c>
@@ -16949,8 +17983,12 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="10"/>
-      <c r="B512" s="6"/>
-      <c r="C512" s="6"/>
+      <c r="B512" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C512" s="6" t="s">
+        <v>550</v>
+      </c>
       <c r="D512" s="6" t="s">
         <v>20</v>
       </c>
@@ -16995,8 +18033,12 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="10"/>
-      <c r="B514" s="6"/>
-      <c r="C514" s="6"/>
+      <c r="B514" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C514" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="D514" s="6" t="s">
         <v>20</v>
       </c>
@@ -17041,8 +18083,12 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="10"/>
-      <c r="B516" s="6"/>
-      <c r="C516" s="6"/>
+      <c r="B516" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C516" s="6" t="s">
+        <v>554</v>
+      </c>
       <c r="D516" s="6" t="s">
         <v>20</v>
       </c>
@@ -17087,8 +18133,12 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="10"/>
-      <c r="B518" s="6"/>
-      <c r="C518" s="6"/>
+      <c r="B518" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C518" s="6" t="s">
+        <v>556</v>
+      </c>
       <c r="D518" s="6" t="s">
         <v>20</v>
       </c>
@@ -17133,8 +18183,12 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="10"/>
-      <c r="B520" s="6"/>
-      <c r="C520" s="6"/>
+      <c r="B520" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C520" s="6" t="s">
+        <v>558</v>
+      </c>
       <c r="D520" s="6" t="s">
         <v>20</v>
       </c>
@@ -17179,8 +18233,12 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="10"/>
-      <c r="B522" s="6"/>
-      <c r="C522" s="6"/>
+      <c r="B522" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C522" s="6" t="s">
+        <v>560</v>
+      </c>
       <c r="D522" s="6" t="s">
         <v>20</v>
       </c>
@@ -17225,8 +18283,12 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="10"/>
-      <c r="B524" s="6"/>
-      <c r="C524" s="6"/>
+      <c r="B524" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C524" s="6" t="s">
+        <v>562</v>
+      </c>
       <c r="D524" s="6" t="s">
         <v>20</v>
       </c>
@@ -17271,8 +18333,12 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="10"/>
-      <c r="B526" s="6"/>
-      <c r="C526" s="6"/>
+      <c r="B526" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C526" s="6" t="s">
+        <v>564</v>
+      </c>
       <c r="D526" s="6" t="s">
         <v>20</v>
       </c>
@@ -17317,8 +18383,12 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="10"/>
-      <c r="B528" s="6"/>
-      <c r="C528" s="6"/>
+      <c r="B528" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C528" s="6" t="s">
+        <v>566</v>
+      </c>
       <c r="D528" s="6" t="s">
         <v>20</v>
       </c>
@@ -17363,8 +18433,12 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="10"/>
-      <c r="B530" s="6"/>
-      <c r="C530" s="6"/>
+      <c r="B530" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C530" s="6" t="s">
+        <v>568</v>
+      </c>
       <c r="D530" s="6" t="s">
         <v>20</v>
       </c>
@@ -17409,8 +18483,12 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="10"/>
-      <c r="B532" s="6"/>
-      <c r="C532" s="6"/>
+      <c r="B532" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C532" s="6" t="s">
+        <v>570</v>
+      </c>
       <c r="D532" s="6" t="s">
         <v>20</v>
       </c>
@@ -17457,8 +18535,12 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="10"/>
-      <c r="B534" s="6"/>
-      <c r="C534" s="6"/>
+      <c r="B534" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C534" s="6" t="s">
+        <v>573</v>
+      </c>
       <c r="D534" s="6" t="s">
         <v>20</v>
       </c>
@@ -17503,8 +18585,12 @@
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="10"/>
-      <c r="B536" s="6"/>
-      <c r="C536" s="6"/>
+      <c r="B536" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C536" s="6" t="s">
+        <v>575</v>
+      </c>
       <c r="D536" s="6" t="s">
         <v>20</v>
       </c>
@@ -17549,8 +18635,12 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="10"/>
-      <c r="B538" s="6"/>
-      <c r="C538" s="6"/>
+      <c r="B538" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C538" s="6" t="s">
+        <v>577</v>
+      </c>
       <c r="D538" s="6" t="s">
         <v>20</v>
       </c>
@@ -17595,8 +18685,12 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="10"/>
-      <c r="B540" s="6"/>
-      <c r="C540" s="6"/>
+      <c r="B540" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C540" s="6" t="s">
+        <v>579</v>
+      </c>
       <c r="D540" s="6" t="s">
         <v>20</v>
       </c>
@@ -17641,8 +18735,12 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="10"/>
-      <c r="B542" s="6"/>
-      <c r="C542" s="6"/>
+      <c r="B542" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C542" s="6" t="s">
+        <v>581</v>
+      </c>
       <c r="D542" s="6" t="s">
         <v>20</v>
       </c>
@@ -17687,8 +18785,12 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="10"/>
-      <c r="B544" s="6"/>
-      <c r="C544" s="6"/>
+      <c r="B544" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C544" s="6" t="s">
+        <v>583</v>
+      </c>
       <c r="D544" s="6" t="s">
         <v>20</v>
       </c>
@@ -17733,8 +18835,12 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="10"/>
-      <c r="B546" s="6"/>
-      <c r="C546" s="6"/>
+      <c r="B546" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C546" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="D546" s="6" t="s">
         <v>20</v>
       </c>
@@ -17779,8 +18885,12 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="10"/>
-      <c r="B548" s="6"/>
-      <c r="C548" s="6"/>
+      <c r="B548" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C548" s="6" t="s">
+        <v>587</v>
+      </c>
       <c r="D548" s="6" t="s">
         <v>20</v>
       </c>
@@ -17825,8 +18935,12 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="10"/>
-      <c r="B550" s="6"/>
-      <c r="C550" s="6"/>
+      <c r="B550" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C550" s="6" t="s">
+        <v>589</v>
+      </c>
       <c r="D550" s="6" t="s">
         <v>20</v>
       </c>
@@ -17871,8 +18985,12 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="10"/>
-      <c r="B552" s="6"/>
-      <c r="C552" s="6"/>
+      <c r="B552" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C552" s="6" t="s">
+        <v>591</v>
+      </c>
       <c r="D552" s="6" t="s">
         <v>20</v>
       </c>
@@ -17917,8 +19035,12 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="10"/>
-      <c r="B554" s="6"/>
-      <c r="C554" s="6"/>
+      <c r="B554" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C554" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="D554" s="6" t="s">
         <v>20</v>
       </c>
@@ -17963,8 +19085,12 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="10"/>
-      <c r="B556" s="6"/>
-      <c r="C556" s="6"/>
+      <c r="B556" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C556" s="6" t="s">
+        <v>595</v>
+      </c>
       <c r="D556" s="6" t="s">
         <v>20</v>
       </c>
@@ -18009,8 +19135,12 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="10"/>
-      <c r="B558" s="6"/>
-      <c r="C558" s="6"/>
+      <c r="B558" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>597</v>
+      </c>
       <c r="D558" s="6" t="s">
         <v>20</v>
       </c>
@@ -18055,8 +19185,12 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="10"/>
-      <c r="B560" s="6"/>
-      <c r="C560" s="6"/>
+      <c r="B560" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C560" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="D560" s="6" t="s">
         <v>20</v>
       </c>
@@ -18101,8 +19235,12 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="10"/>
-      <c r="B562" s="6"/>
-      <c r="C562" s="6"/>
+      <c r="B562" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C562" s="6" t="s">
+        <v>601</v>
+      </c>
       <c r="D562" s="6" t="s">
         <v>20</v>
       </c>
@@ -18147,8 +19285,12 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="10"/>
-      <c r="B564" s="6"/>
-      <c r="C564" s="6"/>
+      <c r="B564" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C564" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="D564" s="6" t="s">
         <v>20</v>
       </c>
@@ -18193,8 +19335,12 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="10"/>
-      <c r="B566" s="6"/>
-      <c r="C566" s="6"/>
+      <c r="B566" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C566" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="D566" s="6" t="s">
         <v>20</v>
       </c>
@@ -18239,8 +19385,12 @@
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="10"/>
-      <c r="B568" s="6"/>
-      <c r="C568" s="6"/>
+      <c r="B568" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C568" s="6" t="s">
+        <v>607</v>
+      </c>
       <c r="D568" s="6" t="s">
         <v>20</v>
       </c>
@@ -18285,8 +19435,12 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="10"/>
-      <c r="B570" s="6"/>
-      <c r="C570" s="6"/>
+      <c r="B570" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C570" s="6" t="s">
+        <v>609</v>
+      </c>
       <c r="D570" s="6" t="s">
         <v>20</v>
       </c>
@@ -18331,8 +19485,12 @@
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="10"/>
-      <c r="B572" s="6"/>
-      <c r="C572" s="6"/>
+      <c r="B572" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C572" s="6" t="s">
+        <v>611</v>
+      </c>
       <c r="D572" s="6" t="s">
         <v>20</v>
       </c>
@@ -18379,8 +19537,12 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="10"/>
-      <c r="B574" s="6"/>
-      <c r="C574" s="6"/>
+      <c r="B574" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C574" s="6" t="s">
+        <v>514</v>
+      </c>
       <c r="D574" s="6" t="s">
         <v>20</v>
       </c>
@@ -18425,8 +19587,12 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="10"/>
-      <c r="B576" s="6"/>
-      <c r="C576" s="6"/>
+      <c r="B576" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C576" s="6" t="s">
+        <v>615</v>
+      </c>
       <c r="D576" s="6" t="s">
         <v>20</v>
       </c>
@@ -18471,8 +19637,12 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="10"/>
-      <c r="B578" s="6"/>
-      <c r="C578" s="6"/>
+      <c r="B578" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C578" s="6" t="s">
+        <v>617</v>
+      </c>
       <c r="D578" s="6" t="s">
         <v>20</v>
       </c>
@@ -18517,8 +19687,12 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="10"/>
-      <c r="B580" s="6"/>
-      <c r="C580" s="6"/>
+      <c r="B580" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C580" s="6" t="s">
+        <v>619</v>
+      </c>
       <c r="D580" s="6" t="s">
         <v>20</v>
       </c>
@@ -18563,8 +19737,12 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="10"/>
-      <c r="B582" s="6"/>
-      <c r="C582" s="6"/>
+      <c r="B582" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C582" s="6" t="s">
+        <v>621</v>
+      </c>
       <c r="D582" s="6" t="s">
         <v>20</v>
       </c>
@@ -18609,8 +19787,12 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="10"/>
-      <c r="B584" s="6"/>
-      <c r="C584" s="6"/>
+      <c r="B584" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C584" s="6" t="s">
+        <v>623</v>
+      </c>
       <c r="D584" s="6" t="s">
         <v>20</v>
       </c>
@@ -18655,8 +19837,12 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="10"/>
-      <c r="B586" s="6"/>
-      <c r="C586" s="6"/>
+      <c r="B586" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C586" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="D586" s="6" t="s">
         <v>20</v>
       </c>
@@ -18701,8 +19887,12 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="10"/>
-      <c r="B588" s="6"/>
-      <c r="C588" s="6"/>
+      <c r="B588" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C588" s="6" t="s">
+        <v>627</v>
+      </c>
       <c r="D588" s="6" t="s">
         <v>20</v>
       </c>
@@ -18747,8 +19937,12 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="10"/>
-      <c r="B590" s="6"/>
-      <c r="C590" s="6"/>
+      <c r="B590" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C590" s="6" t="s">
+        <v>629</v>
+      </c>
       <c r="D590" s="6" t="s">
         <v>20</v>
       </c>
@@ -18793,8 +19987,12 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="10"/>
-      <c r="B592" s="6"/>
-      <c r="C592" s="6"/>
+      <c r="B592" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="C592" s="6" t="s">
+        <v>631</v>
+      </c>
       <c r="D592" s="6" t="s">
         <v>20</v>
       </c>
@@ -18839,8 +20037,12 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="10"/>
-      <c r="B594" s="6"/>
-      <c r="C594" s="6"/>
+      <c r="B594" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C594" s="6" t="s">
+        <v>633</v>
+      </c>
       <c r="D594" s="6" t="s">
         <v>20</v>
       </c>
@@ -18885,8 +20087,12 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="10"/>
-      <c r="B596" s="6"/>
-      <c r="C596" s="6"/>
+      <c r="B596" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C596" s="6" t="s">
+        <v>635</v>
+      </c>
       <c r="D596" s="6" t="s">
         <v>20</v>
       </c>
@@ -18931,8 +20137,12 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="10"/>
-      <c r="B598" s="6"/>
-      <c r="C598" s="6"/>
+      <c r="B598" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C598" s="6" t="s">
+        <v>637</v>
+      </c>
       <c r="D598" s="6" t="s">
         <v>20</v>
       </c>
@@ -18977,8 +20187,12 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="10"/>
-      <c r="B600" s="6"/>
-      <c r="C600" s="6"/>
+      <c r="B600" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C600" s="6" t="s">
+        <v>639</v>
+      </c>
       <c r="D600" s="6" t="s">
         <v>20</v>
       </c>
@@ -19023,8 +20237,12 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="10"/>
-      <c r="B602" s="6"/>
-      <c r="C602" s="6"/>
+      <c r="B602" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C602" s="6" t="s">
+        <v>641</v>
+      </c>
       <c r="D602" s="6" t="s">
         <v>20</v>
       </c>
@@ -19069,8 +20287,12 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="10"/>
-      <c r="B604" s="6"/>
-      <c r="C604" s="6"/>
+      <c r="B604" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C604" s="6" t="s">
+        <v>643</v>
+      </c>
       <c r="D604" s="6" t="s">
         <v>20</v>
       </c>
@@ -20203,8 +21425,12 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="10"/>
-      <c r="B646" s="6"/>
-      <c r="C646" s="6"/>
+      <c r="B646" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C646" s="6" t="s">
+        <v>724</v>
+      </c>
       <c r="D646" s="6" t="s">
         <v>20</v>
       </c>
@@ -20249,8 +21475,12 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="10"/>
-      <c r="B648" s="6"/>
-      <c r="C648" s="6"/>
+      <c r="B648" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C648" s="6" t="s">
+        <v>726</v>
+      </c>
       <c r="D648" s="6" t="s">
         <v>20</v>
       </c>
@@ -20295,8 +21525,12 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="10"/>
-      <c r="B650" s="6"/>
-      <c r="C650" s="6"/>
+      <c r="B650" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C650" s="6" t="s">
+        <v>728</v>
+      </c>
       <c r="D650" s="6" t="s">
         <v>20</v>
       </c>
@@ -20341,8 +21575,12 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="10"/>
-      <c r="B652" s="6"/>
-      <c r="C652" s="6"/>
+      <c r="B652" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C652" s="6" t="s">
+        <v>730</v>
+      </c>
       <c r="D652" s="6" t="s">
         <v>20</v>
       </c>
@@ -20387,8 +21625,12 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="10"/>
-      <c r="B654" s="6"/>
-      <c r="C654" s="6"/>
+      <c r="B654" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="C654" s="6" t="s">
+        <v>732</v>
+      </c>
       <c r="D654" s="6" t="s">
         <v>20</v>
       </c>
@@ -20433,8 +21675,12 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="10"/>
-      <c r="B656" s="6"/>
-      <c r="C656" s="6"/>
+      <c r="B656" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C656" s="6" t="s">
+        <v>734</v>
+      </c>
       <c r="D656" s="6" t="s">
         <v>20</v>
       </c>
@@ -20479,8 +21725,12 @@
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="10"/>
-      <c r="B658" s="6"/>
-      <c r="C658" s="6"/>
+      <c r="B658" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C658" s="6" t="s">
+        <v>736</v>
+      </c>
       <c r="D658" s="6" t="s">
         <v>20</v>
       </c>
@@ -20525,8 +21775,12 @@
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="10"/>
-      <c r="B660" s="6"/>
-      <c r="C660" s="6"/>
+      <c r="B660" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C660" s="6" t="s">
+        <v>738</v>
+      </c>
       <c r="D660" s="6" t="s">
         <v>20</v>
       </c>
@@ -20571,8 +21825,12 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="10"/>
-      <c r="B662" s="6"/>
-      <c r="C662" s="6"/>
+      <c r="B662" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C662" s="6" t="s">
+        <v>740</v>
+      </c>
       <c r="D662" s="6" t="s">
         <v>20</v>
       </c>
@@ -20619,8 +21877,12 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="10"/>
-      <c r="B664" s="6"/>
-      <c r="C664" s="6"/>
+      <c r="B664" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C664" s="6" t="s">
+        <v>743</v>
+      </c>
       <c r="D664" s="6" t="s">
         <v>21</v>
       </c>
@@ -20665,8 +21927,12 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="10"/>
-      <c r="B666" s="6"/>
-      <c r="C666" s="6"/>
+      <c r="B666" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C666" s="6" t="s">
+        <v>745</v>
+      </c>
       <c r="D666" s="6" t="s">
         <v>21</v>
       </c>
@@ -20711,8 +21977,12 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="10"/>
-      <c r="B668" s="6"/>
-      <c r="C668" s="6"/>
+      <c r="B668" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C668" s="6" t="s">
+        <v>747</v>
+      </c>
       <c r="D668" s="6" t="s">
         <v>21</v>
       </c>
@@ -20757,8 +22027,12 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="10"/>
-      <c r="B670" s="6"/>
-      <c r="C670" s="6"/>
+      <c r="B670" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C670" s="6" t="s">
+        <v>749</v>
+      </c>
       <c r="D670" s="6" t="s">
         <v>21</v>
       </c>
@@ -20803,8 +22077,12 @@
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="10"/>
-      <c r="B672" s="6"/>
-      <c r="C672" s="6"/>
+      <c r="B672" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C672" s="6" t="s">
+        <v>751</v>
+      </c>
       <c r="D672" s="6" t="s">
         <v>21</v>
       </c>
@@ -20849,8 +22127,12 @@
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="10"/>
-      <c r="B674" s="6"/>
-      <c r="C674" s="6"/>
+      <c r="B674" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C674" s="6" t="s">
+        <v>753</v>
+      </c>
       <c r="D674" s="6" t="s">
         <v>21</v>
       </c>
@@ -20895,8 +22177,12 @@
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="10"/>
-      <c r="B676" s="6"/>
-      <c r="C676" s="6"/>
+      <c r="B676" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C676" s="6" t="s">
+        <v>755</v>
+      </c>
       <c r="D676" s="6" t="s">
         <v>21</v>
       </c>
@@ -20941,8 +22227,12 @@
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="10"/>
-      <c r="B678" s="6"/>
-      <c r="C678" s="6"/>
+      <c r="B678" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="C678" s="6" t="s">
+        <v>757</v>
+      </c>
       <c r="D678" s="6" t="s">
         <v>21</v>
       </c>
@@ -20989,8 +22279,12 @@
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="10"/>
-      <c r="B680" s="6"/>
-      <c r="C680" s="6"/>
+      <c r="B680" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C680" s="6" t="s">
+        <v>760</v>
+      </c>
       <c r="D680" s="6" t="s">
         <v>21</v>
       </c>
@@ -21035,8 +22329,12 @@
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="10"/>
-      <c r="B682" s="6"/>
-      <c r="C682" s="6"/>
+      <c r="B682" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C682" s="6" t="s">
+        <v>762</v>
+      </c>
       <c r="D682" s="6" t="s">
         <v>21</v>
       </c>
@@ -21081,8 +22379,12 @@
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="10"/>
-      <c r="B684" s="6"/>
-      <c r="C684" s="6"/>
+      <c r="B684" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C684" s="6" t="s">
+        <v>764</v>
+      </c>
       <c r="D684" s="6" t="s">
         <v>21</v>
       </c>
@@ -21127,8 +22429,12 @@
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="10"/>
-      <c r="B686" s="6"/>
-      <c r="C686" s="6"/>
+      <c r="B686" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C686" s="6" t="s">
+        <v>766</v>
+      </c>
       <c r="D686" s="6" t="s">
         <v>21</v>
       </c>
@@ -21173,8 +22479,12 @@
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="10"/>
-      <c r="B688" s="6"/>
-      <c r="C688" s="6"/>
+      <c r="B688" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C688" s="6" t="s">
+        <v>768</v>
+      </c>
       <c r="D688" s="6" t="s">
         <v>21</v>
       </c>
@@ -21219,8 +22529,12 @@
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="10"/>
-      <c r="B690" s="6"/>
-      <c r="C690" s="6"/>
+      <c r="B690" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C690" s="6" t="s">
+        <v>707</v>
+      </c>
       <c r="D690" s="6" t="s">
         <v>21</v>
       </c>
@@ -21265,8 +22579,12 @@
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="10"/>
-      <c r="B692" s="6"/>
-      <c r="C692" s="6"/>
+      <c r="B692" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C692" s="6" t="s">
+        <v>771</v>
+      </c>
       <c r="D692" s="6" t="s">
         <v>21</v>
       </c>
@@ -21311,8 +22629,12 @@
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="10"/>
-      <c r="B694" s="6"/>
-      <c r="C694" s="6"/>
+      <c r="B694" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C694" s="6" t="s">
+        <v>773</v>
+      </c>
       <c r="D694" s="6" t="s">
         <v>21</v>
       </c>
@@ -21357,8 +22679,12 @@
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="10"/>
-      <c r="B696" s="6"/>
-      <c r="C696" s="6"/>
+      <c r="B696" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C696" s="6" t="s">
+        <v>775</v>
+      </c>
       <c r="D696" s="6" t="s">
         <v>21</v>
       </c>
@@ -21403,8 +22729,12 @@
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="10"/>
-      <c r="B698" s="6"/>
-      <c r="C698" s="6"/>
+      <c r="B698" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="C698" s="6" t="s">
+        <v>777</v>
+      </c>
       <c r="D698" s="6" t="s">
         <v>21</v>
       </c>
@@ -21451,8 +22781,12 @@
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="10"/>
-      <c r="B700" s="6"/>
-      <c r="C700" s="6"/>
+      <c r="B700" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C700" s="6" t="s">
+        <v>780</v>
+      </c>
       <c r="D700" s="6" t="s">
         <v>21</v>
       </c>
@@ -21497,8 +22831,12 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="10"/>
-      <c r="B702" s="6"/>
-      <c r="C702" s="6"/>
+      <c r="B702" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C702" s="6" t="s">
+        <v>782</v>
+      </c>
       <c r="D702" s="6" t="s">
         <v>21</v>
       </c>
@@ -21543,8 +22881,12 @@
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="10"/>
-      <c r="B704" s="6"/>
-      <c r="C704" s="6"/>
+      <c r="B704" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C704" s="6" t="s">
+        <v>784</v>
+      </c>
       <c r="D704" s="6" t="s">
         <v>21</v>
       </c>
@@ -21589,8 +22931,12 @@
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="10"/>
-      <c r="B706" s="6"/>
-      <c r="C706" s="6"/>
+      <c r="B706" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C706" s="6" t="s">
+        <v>786</v>
+      </c>
       <c r="D706" s="6" t="s">
         <v>21</v>
       </c>
@@ -21635,8 +22981,12 @@
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="10"/>
-      <c r="B708" s="6"/>
-      <c r="C708" s="6"/>
+      <c r="B708" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="C708" s="6" t="s">
+        <v>514</v>
+      </c>
       <c r="D708" s="6" t="s">
         <v>21</v>
       </c>
@@ -21681,8 +23031,12 @@
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="10"/>
-      <c r="B710" s="6"/>
-      <c r="C710" s="6"/>
+      <c r="B710" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C710" s="6" t="s">
+        <v>789</v>
+      </c>
       <c r="D710" s="6" t="s">
         <v>21</v>
       </c>
@@ -21727,8 +23081,12 @@
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="10"/>
-      <c r="B712" s="6"/>
-      <c r="C712" s="6"/>
+      <c r="B712" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C712" s="6" t="s">
+        <v>791</v>
+      </c>
       <c r="D712" s="6" t="s">
         <v>21</v>
       </c>
@@ -21773,8 +23131,12 @@
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="10"/>
-      <c r="B714" s="6"/>
-      <c r="C714" s="6"/>
+      <c r="B714" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C714" s="6" t="s">
+        <v>793</v>
+      </c>
       <c r="D714" s="6" t="s">
         <v>21</v>
       </c>
@@ -21821,8 +23183,12 @@
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="10"/>
-      <c r="B716" s="6"/>
-      <c r="C716" s="6"/>
+      <c r="B716" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C716" s="6" t="s">
+        <v>796</v>
+      </c>
       <c r="D716" s="6" t="s">
         <v>21</v>
       </c>
@@ -21867,8 +23233,12 @@
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="10"/>
-      <c r="B718" s="6"/>
-      <c r="C718" s="6"/>
+      <c r="B718" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="C718" s="6" t="s">
+        <v>798</v>
+      </c>
       <c r="D718" s="6" t="s">
         <v>21</v>
       </c>
@@ -21913,8 +23283,12 @@
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="10"/>
-      <c r="B720" s="6"/>
-      <c r="C720" s="6"/>
+      <c r="B720" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C720" s="6" t="s">
+        <v>800</v>
+      </c>
       <c r="D720" s="6" t="s">
         <v>21</v>
       </c>
@@ -21959,8 +23333,12 @@
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="10"/>
-      <c r="B722" s="6"/>
-      <c r="C722" s="6"/>
+      <c r="B722" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C722" s="6" t="s">
+        <v>802</v>
+      </c>
       <c r="D722" s="6" t="s">
         <v>21</v>
       </c>
@@ -22005,8 +23383,12 @@
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="10"/>
-      <c r="B724" s="6"/>
-      <c r="C724" s="6"/>
+      <c r="B724" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="C724" s="6" t="s">
+        <v>804</v>
+      </c>
       <c r="D724" s="6" t="s">
         <v>21</v>
       </c>
@@ -22051,8 +23433,12 @@
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="10"/>
-      <c r="B726" s="6"/>
-      <c r="C726" s="6"/>
+      <c r="B726" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C726" s="6" t="s">
+        <v>806</v>
+      </c>
       <c r="D726" s="6" t="s">
         <v>21</v>
       </c>
@@ -22097,8 +23483,12 @@
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="10"/>
-      <c r="B728" s="6"/>
-      <c r="C728" s="6"/>
+      <c r="B728" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="C728" s="6" t="s">
+        <v>808</v>
+      </c>
       <c r="D728" s="6" t="s">
         <v>21</v>
       </c>
@@ -22143,8 +23533,12 @@
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="10"/>
-      <c r="B730" s="6"/>
-      <c r="C730" s="6"/>
+      <c r="B730" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="C730" s="6" t="s">
+        <v>810</v>
+      </c>
       <c r="D730" s="6" t="s">
         <v>21</v>
       </c>
@@ -22189,8 +23583,12 @@
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="10"/>
-      <c r="B732" s="6"/>
-      <c r="C732" s="6"/>
+      <c r="B732" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="C732" s="6" t="s">
+        <v>812</v>
+      </c>
       <c r="D732" s="6" t="s">
         <v>21</v>
       </c>
@@ -22235,8 +23633,12 @@
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="10"/>
-      <c r="B734" s="6"/>
-      <c r="C734" s="6"/>
+      <c r="B734" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C734" s="6" t="s">
+        <v>814</v>
+      </c>
       <c r="D734" s="6" t="s">
         <v>21</v>
       </c>
@@ -22281,8 +23683,12 @@
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="10"/>
-      <c r="B736" s="6"/>
-      <c r="C736" s="6"/>
+      <c r="B736" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="C736" s="6" t="s">
+        <v>816</v>
+      </c>
       <c r="D736" s="6" t="s">
         <v>21</v>
       </c>
@@ -22981,8 +24387,12 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="10"/>
-      <c r="B762" s="6"/>
-      <c r="C762" s="6"/>
+      <c r="B762" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C762" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="D762" s="6" t="s">
         <v>20</v>
       </c>
@@ -23027,8 +24437,12 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="10"/>
-      <c r="B764" s="6"/>
-      <c r="C764" s="6"/>
+      <c r="B764" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C764" s="6" t="s">
+        <v>870</v>
+      </c>
       <c r="D764" s="6" t="s">
         <v>20</v>
       </c>
@@ -23073,8 +24487,12 @@
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="10"/>
-      <c r="B766" s="6"/>
-      <c r="C766" s="6"/>
+      <c r="B766" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="C766" s="6" t="s">
+        <v>583</v>
+      </c>
       <c r="D766" s="6" t="s">
         <v>20</v>
       </c>
@@ -23119,8 +24537,12 @@
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="10"/>
-      <c r="B768" s="6"/>
-      <c r="C768" s="6"/>
+      <c r="B768" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="C768" s="6" t="s">
+        <v>873</v>
+      </c>
       <c r="D768" s="6" t="s">
         <v>20</v>
       </c>
@@ -23165,8 +24587,12 @@
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="10"/>
-      <c r="B770" s="6"/>
-      <c r="C770" s="6"/>
+      <c r="B770" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C770" s="6" t="s">
+        <v>875</v>
+      </c>
       <c r="D770" s="6" t="s">
         <v>20</v>
       </c>
@@ -23211,8 +24637,12 @@
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="10"/>
-      <c r="B772" s="6"/>
-      <c r="C772" s="6"/>
+      <c r="B772" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C772" s="6" t="s">
+        <v>877</v>
+      </c>
       <c r="D772" s="6" t="s">
         <v>20</v>
       </c>
@@ -23257,8 +24687,12 @@
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="10"/>
-      <c r="B774" s="6"/>
-      <c r="C774" s="6"/>
+      <c r="B774" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="C774" s="6" t="s">
+        <v>879</v>
+      </c>
       <c r="D774" s="6" t="s">
         <v>20</v>
       </c>
@@ -23303,8 +24737,12 @@
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="10"/>
-      <c r="B776" s="6"/>
-      <c r="C776" s="6"/>
+      <c r="B776" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C776" s="6" t="s">
+        <v>881</v>
+      </c>
       <c r="D776" s="6" t="s">
         <v>20</v>
       </c>
@@ -23349,8 +24787,12 @@
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="10"/>
-      <c r="B778" s="6"/>
-      <c r="C778" s="6"/>
+      <c r="B778" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C778" s="6" t="s">
+        <v>883</v>
+      </c>
       <c r="D778" s="6" t="s">
         <v>20</v>
       </c>
@@ -24568,8 +26010,12 @@
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="10"/>
-      <c r="B823" s="6"/>
-      <c r="C823" s="6"/>
+      <c r="B823" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="C823" s="6" t="s">
+        <v>971</v>
+      </c>
       <c r="D823" s="6" t="s">
         <v>21</v>
       </c>
@@ -24614,8 +26060,12 @@
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="10"/>
-      <c r="B825" s="6"/>
-      <c r="C825" s="6"/>
+      <c r="B825" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="C825" s="6" t="s">
+        <v>973</v>
+      </c>
       <c r="D825" s="6" t="s">
         <v>21</v>
       </c>
@@ -24660,8 +26110,12 @@
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="10"/>
-      <c r="B827" s="6"/>
-      <c r="C827" s="6"/>
+      <c r="B827" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="C827" s="6" t="s">
+        <v>975</v>
+      </c>
       <c r="D827" s="6" t="s">
         <v>21</v>
       </c>
@@ -24706,8 +26160,12 @@
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="10"/>
-      <c r="B829" s="6"/>
-      <c r="C829" s="6"/>
+      <c r="B829" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="C829" s="6" t="s">
+        <v>977</v>
+      </c>
       <c r="D829" s="6" t="s">
         <v>21</v>
       </c>
@@ -24752,8 +26210,12 @@
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="10"/>
-      <c r="B831" s="6"/>
-      <c r="C831" s="6"/>
+      <c r="B831" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="C831" s="6" t="s">
+        <v>979</v>
+      </c>
       <c r="D831" s="6" t="s">
         <v>21</v>
       </c>
@@ -24798,8 +26260,12 @@
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="10"/>
-      <c r="B833" s="6"/>
-      <c r="C833" s="6"/>
+      <c r="B833" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="C833" s="6" t="s">
+        <v>981</v>
+      </c>
       <c r="D833" s="6" t="s">
         <v>21</v>
       </c>
@@ -24844,8 +26310,12 @@
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="10"/>
-      <c r="B835" s="6"/>
-      <c r="C835" s="6"/>
+      <c r="B835" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="C835" s="6" t="s">
+        <v>983</v>
+      </c>
       <c r="D835" s="6" t="s">
         <v>21</v>
       </c>
@@ -24892,8 +26362,12 @@
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="10"/>
-      <c r="B837" s="6"/>
-      <c r="C837" s="6"/>
+      <c r="B837" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="C837" s="6" t="s">
+        <v>986</v>
+      </c>
       <c r="D837" s="6" t="s">
         <v>21</v>
       </c>
@@ -24938,8 +26412,12 @@
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="10"/>
-      <c r="B839" s="6"/>
-      <c r="C839" s="6"/>
+      <c r="B839" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C839" s="6" t="s">
+        <v>988</v>
+      </c>
       <c r="D839" s="6" t="s">
         <v>21</v>
       </c>
@@ -24984,8 +26462,12 @@
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="10"/>
-      <c r="B841" s="6"/>
-      <c r="C841" s="6"/>
+      <c r="B841" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="C841" s="6" t="s">
+        <v>990</v>
+      </c>
       <c r="D841" s="6" t="s">
         <v>21</v>
       </c>
@@ -25030,8 +26512,12 @@
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="10"/>
-      <c r="B843" s="6"/>
-      <c r="C843" s="6"/>
+      <c r="B843" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C843" s="6" t="s">
+        <v>992</v>
+      </c>
       <c r="D843" s="6" t="s">
         <v>21</v>
       </c>
@@ -25076,8 +26562,12 @@
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="10"/>
-      <c r="B845" s="6"/>
-      <c r="C845" s="6"/>
+      <c r="B845" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="C845" s="6" t="s">
+        <v>994</v>
+      </c>
       <c r="D845" s="6" t="s">
         <v>21</v>
       </c>
@@ -25122,8 +26612,12 @@
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="10"/>
-      <c r="B847" s="6"/>
-      <c r="C847" s="6"/>
+      <c r="B847" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="C847" s="6" t="s">
+        <v>996</v>
+      </c>
       <c r="D847" s="6" t="s">
         <v>21</v>
       </c>
@@ -25168,8 +26662,12 @@
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="10"/>
-      <c r="B849" s="6"/>
-      <c r="C849" s="6"/>
+      <c r="B849" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="C849" s="6" t="s">
+        <v>998</v>
+      </c>
       <c r="D849" s="6" t="s">
         <v>21</v>
       </c>
@@ -25214,8 +26712,12 @@
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="10"/>
-      <c r="B851" s="6"/>
-      <c r="C851" s="6"/>
+      <c r="B851" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="C851" s="6" t="s">
+        <v>1000</v>
+      </c>
       <c r="D851" s="6" t="s">
         <v>21</v>
       </c>
@@ -25260,8 +26762,12 @@
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="10"/>
-      <c r="B853" s="6"/>
-      <c r="C853" s="6"/>
+      <c r="B853" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C853" s="6" t="s">
+        <v>1002</v>
+      </c>
       <c r="D853" s="6" t="s">
         <v>21</v>
       </c>
@@ -25306,8 +26812,12 @@
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="10"/>
-      <c r="B855" s="6"/>
-      <c r="C855" s="6"/>
+      <c r="B855" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C855" s="6" t="s">
+        <v>1004</v>
+      </c>
       <c r="D855" s="6" t="s">
         <v>21</v>
       </c>
@@ -25352,8 +26862,12 @@
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="10"/>
-      <c r="B857" s="6"/>
-      <c r="C857" s="6"/>
+      <c r="B857" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C857" s="6" t="s">
+        <v>1006</v>
+      </c>
       <c r="D857" s="6" t="s">
         <v>21</v>
       </c>
@@ -25398,8 +26912,12 @@
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="10"/>
-      <c r="B859" s="6"/>
-      <c r="C859" s="6"/>
+      <c r="B859" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C859" s="6" t="s">
+        <v>1008</v>
+      </c>
       <c r="D859" s="6" t="s">
         <v>21</v>
       </c>
@@ -25444,8 +26962,12 @@
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="10"/>
-      <c r="B861" s="6"/>
-      <c r="C861" s="6"/>
+      <c r="B861" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C861" s="6" t="s">
+        <v>1010</v>
+      </c>
       <c r="D861" s="6" t="s">
         <v>21</v>
       </c>
@@ -25490,8 +27012,12 @@
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="10"/>
-      <c r="B863" s="6"/>
-      <c r="C863" s="6"/>
+      <c r="B863" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C863" s="6" t="s">
+        <v>1012</v>
+      </c>
       <c r="D863" s="6" t="s">
         <v>21</v>
       </c>
@@ -25538,8 +27064,12 @@
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="10"/>
-      <c r="B865" s="6"/>
-      <c r="C865" s="6"/>
+      <c r="B865" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C865" s="6" t="s">
+        <v>1015</v>
+      </c>
       <c r="D865" s="6" t="s">
         <v>20</v>
       </c>
@@ -25584,8 +27114,12 @@
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="10"/>
-      <c r="B867" s="6"/>
-      <c r="C867" s="6"/>
+      <c r="B867" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C867" s="6" t="s">
+        <v>1017</v>
+      </c>
       <c r="D867" s="6" t="s">
         <v>20</v>
       </c>
@@ -25630,8 +27164,12 @@
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="10"/>
-      <c r="B869" s="6"/>
-      <c r="C869" s="6"/>
+      <c r="B869" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C869" s="6" t="s">
+        <v>1019</v>
+      </c>
       <c r="D869" s="6" t="s">
         <v>20</v>
       </c>
@@ -25676,8 +27214,12 @@
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="10"/>
-      <c r="B871" s="6"/>
-      <c r="C871" s="6"/>
+      <c r="B871" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C871" s="6" t="s">
+        <v>1021</v>
+      </c>
       <c r="D871" s="6" t="s">
         <v>20</v>
       </c>
@@ -25720,8 +27262,12 @@
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="10"/>
-      <c r="B873" s="6"/>
-      <c r="C873" s="6"/>
+      <c r="B873" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C873" s="6" t="s">
+        <v>1023</v>
+      </c>
       <c r="D873" s="6" t="s">
         <v>20</v>
       </c>
@@ -25766,8 +27312,12 @@
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="10"/>
-      <c r="B875" s="6"/>
-      <c r="C875" s="6"/>
+      <c r="B875" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C875" s="6" t="s">
+        <v>1025</v>
+      </c>
       <c r="D875" s="6" t="s">
         <v>20</v>
       </c>
@@ -25812,8 +27362,12 @@
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="10"/>
-      <c r="B877" s="6"/>
-      <c r="C877" s="6"/>
+      <c r="B877" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C877" s="6" t="s">
+        <v>1027</v>
+      </c>
       <c r="D877" s="6" t="s">
         <v>20</v>
       </c>
@@ -25858,8 +27412,12 @@
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="10"/>
-      <c r="B879" s="6"/>
-      <c r="C879" s="6"/>
+      <c r="B879" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C879" s="6" t="s">
+        <v>786</v>
+      </c>
       <c r="D879" s="6" t="s">
         <v>20</v>
       </c>
@@ -25904,8 +27462,12 @@
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="10"/>
-      <c r="B881" s="6"/>
-      <c r="C881" s="6"/>
+      <c r="B881" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C881" s="6" t="s">
+        <v>1030</v>
+      </c>
       <c r="D881" s="6" t="s">
         <v>20</v>
       </c>
@@ -25950,8 +27512,12 @@
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="10"/>
-      <c r="B883" s="6"/>
-      <c r="C883" s="6"/>
+      <c r="B883" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C883" s="6" t="s">
+        <v>1032</v>
+      </c>
       <c r="D883" s="6" t="s">
         <v>20</v>
       </c>
@@ -25996,8 +27562,12 @@
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="10"/>
-      <c r="B885" s="6"/>
-      <c r="C885" s="6"/>
+      <c r="B885" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C885" s="6" t="s">
+        <v>1034</v>
+      </c>
       <c r="D885" s="6" t="s">
         <v>20</v>
       </c>
@@ -26042,8 +27612,12 @@
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="10"/>
-      <c r="B887" s="6"/>
-      <c r="C887" s="6"/>
+      <c r="B887" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C887" s="6" t="s">
+        <v>1036</v>
+      </c>
       <c r="D887" s="6" t="s">
         <v>20</v>
       </c>
@@ -26088,8 +27662,12 @@
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="10"/>
-      <c r="B889" s="6"/>
-      <c r="C889" s="6"/>
+      <c r="B889" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C889" s="6" t="s">
+        <v>1038</v>
+      </c>
       <c r="D889" s="6" t="s">
         <v>20</v>
       </c>
@@ -26136,8 +27714,12 @@
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="10"/>
-      <c r="B891" s="6"/>
-      <c r="C891" s="6"/>
+      <c r="B891" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C891" s="6" t="s">
+        <v>1041</v>
+      </c>
       <c r="D891" s="6" t="s">
         <v>21</v>
       </c>
@@ -26182,8 +27764,12 @@
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="10"/>
-      <c r="B893" s="6"/>
-      <c r="C893" s="6"/>
+      <c r="B893" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C893" s="6" t="s">
+        <v>1043</v>
+      </c>
       <c r="D893" s="6" t="s">
         <v>21</v>
       </c>
@@ -26228,8 +27814,12 @@
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="10"/>
-      <c r="B895" s="6"/>
-      <c r="C895" s="6"/>
+      <c r="B895" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C895" s="6" t="s">
+        <v>1045</v>
+      </c>
       <c r="D895" s="6" t="s">
         <v>21</v>
       </c>
@@ -26274,8 +27864,12 @@
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="10"/>
-      <c r="B897" s="6"/>
-      <c r="C897" s="6"/>
+      <c r="B897" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C897" s="6" t="s">
+        <v>1047</v>
+      </c>
       <c r="D897" s="6" t="s">
         <v>21</v>
       </c>
@@ -26320,8 +27914,12 @@
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="10"/>
-      <c r="B899" s="6"/>
-      <c r="C899" s="6"/>
+      <c r="B899" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C899" s="6" t="s">
+        <v>1049</v>
+      </c>
       <c r="D899" s="6" t="s">
         <v>21</v>
       </c>
@@ -26366,8 +27964,12 @@
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="10"/>
-      <c r="B901" s="6"/>
-      <c r="C901" s="6"/>
+      <c r="B901" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C901" s="6" t="s">
+        <v>1051</v>
+      </c>
       <c r="D901" s="6" t="s">
         <v>21</v>
       </c>
@@ -26412,8 +28014,12 @@
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="10"/>
-      <c r="B903" s="6"/>
-      <c r="C903" s="6"/>
+      <c r="B903" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C903" s="6" t="s">
+        <v>1053</v>
+      </c>
       <c r="D903" s="6" t="s">
         <v>21</v>
       </c>
@@ -26458,8 +28064,12 @@
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="10"/>
-      <c r="B905" s="6"/>
-      <c r="C905" s="6"/>
+      <c r="B905" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C905" s="6" t="s">
+        <v>1055</v>
+      </c>
       <c r="D905" s="6" t="s">
         <v>21</v>
       </c>
@@ -26504,8 +28114,12 @@
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="10"/>
-      <c r="B907" s="6"/>
-      <c r="C907" s="6"/>
+      <c r="B907" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C907" s="6" t="s">
+        <v>1057</v>
+      </c>
       <c r="D907" s="6" t="s">
         <v>21</v>
       </c>
@@ -26550,8 +28164,12 @@
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="10"/>
-      <c r="B909" s="6"/>
-      <c r="C909" s="6"/>
+      <c r="B909" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C909" s="6" t="s">
+        <v>914</v>
+      </c>
       <c r="D909" s="6" t="s">
         <v>21</v>
       </c>
@@ -26596,8 +28214,12 @@
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="10"/>
-      <c r="B911" s="6"/>
-      <c r="C911" s="6"/>
+      <c r="B911" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C911" s="6" t="s">
+        <v>1060</v>
+      </c>
       <c r="D911" s="6" t="s">
         <v>21</v>
       </c>
@@ -26642,8 +28264,12 @@
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="10"/>
-      <c r="B913" s="6"/>
-      <c r="C913" s="6"/>
+      <c r="B913" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C913" s="6" t="s">
+        <v>1062</v>
+      </c>
       <c r="D913" s="6" t="s">
         <v>21</v>
       </c>
@@ -26688,8 +28314,12 @@
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="10"/>
-      <c r="B915" s="6"/>
-      <c r="C915" s="6"/>
+      <c r="B915" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C915" s="6" t="s">
+        <v>1064</v>
+      </c>
       <c r="D915" s="6" t="s">
         <v>21</v>
       </c>
@@ -26734,8 +28364,12 @@
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="10"/>
-      <c r="B917" s="6"/>
-      <c r="C917" s="6"/>
+      <c r="B917" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C917" s="6" t="s">
+        <v>1066</v>
+      </c>
       <c r="D917" s="6" t="s">
         <v>21</v>
       </c>
@@ -26780,8 +28414,12 @@
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="10"/>
-      <c r="B919" s="6"/>
-      <c r="C919" s="6"/>
+      <c r="B919" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C919" s="6" t="s">
+        <v>1068</v>
+      </c>
       <c r="D919" s="6" t="s">
         <v>21</v>
       </c>
@@ -26826,8 +28464,12 @@
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="10"/>
-      <c r="B921" s="6"/>
-      <c r="C921" s="6"/>
+      <c r="B921" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C921" s="6" t="s">
+        <v>1070</v>
+      </c>
       <c r="D921" s="6" t="s">
         <v>21</v>
       </c>
@@ -26874,8 +28516,12 @@
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="10"/>
-      <c r="B923" s="6"/>
-      <c r="C923" s="6"/>
+      <c r="B923" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C923" s="6" t="s">
+        <v>1073</v>
+      </c>
       <c r="D923" s="6"/>
       <c r="E923" s="6"/>
       <c r="F923" s="11"/>
@@ -26916,8 +28562,12 @@
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="10"/>
-      <c r="B925" s="6"/>
-      <c r="C925" s="6"/>
+      <c r="B925" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C925" s="6" t="s">
+        <v>1075</v>
+      </c>
       <c r="D925" s="6"/>
       <c r="E925" s="6"/>
       <c r="F925" s="11"/>
@@ -26958,8 +28608,12 @@
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="10"/>
-      <c r="B927" s="6"/>
-      <c r="C927" s="6"/>
+      <c r="B927" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C927" s="6" t="s">
+        <v>1077</v>
+      </c>
       <c r="D927" s="6"/>
       <c r="E927" s="6"/>
       <c r="F927" s="11"/>
@@ -27000,8 +28654,12 @@
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="10"/>
-      <c r="B929" s="6"/>
-      <c r="C929" s="6"/>
+      <c r="B929" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C929" s="6" t="s">
+        <v>936</v>
+      </c>
       <c r="D929" s="6"/>
       <c r="E929" s="6"/>
       <c r="F929" s="11"/>
@@ -27042,8 +28700,12 @@
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="10"/>
-      <c r="B931" s="6"/>
-      <c r="C931" s="6"/>
+      <c r="B931" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C931" s="6" t="s">
+        <v>1080</v>
+      </c>
       <c r="D931" s="6"/>
       <c r="E931" s="6"/>
       <c r="F931" s="11"/>
@@ -27084,8 +28746,12 @@
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="10"/>
-      <c r="B933" s="6"/>
-      <c r="C933" s="6"/>
+      <c r="B933" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C933" s="6" t="s">
+        <v>1082</v>
+      </c>
       <c r="D933" s="6"/>
       <c r="E933" s="6"/>
       <c r="F933" s="11"/>
@@ -27126,8 +28792,12 @@
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="10"/>
-      <c r="B935" s="6"/>
-      <c r="C935" s="6"/>
+      <c r="B935" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C935" s="6" t="s">
+        <v>1084</v>
+      </c>
       <c r="D935" s="6"/>
       <c r="E935" s="6"/>
       <c r="F935" s="11"/>
@@ -27168,8 +28838,12 @@
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="10"/>
-      <c r="B937" s="6"/>
-      <c r="C937" s="6"/>
+      <c r="B937" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C937" s="6" t="s">
+        <v>1086</v>
+      </c>
       <c r="D937" s="6"/>
       <c r="E937" s="6"/>
       <c r="F937" s="11"/>
@@ -27212,8 +28886,12 @@
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="10"/>
-      <c r="B939" s="6"/>
-      <c r="C939" s="6"/>
+      <c r="B939" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C939" s="6" t="s">
+        <v>1089</v>
+      </c>
       <c r="D939" s="6" t="s">
         <v>20</v>
       </c>
@@ -27258,8 +28936,12 @@
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="10"/>
-      <c r="B941" s="6"/>
-      <c r="C941" s="6"/>
+      <c r="B941" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C941" s="6" t="s">
+        <v>1091</v>
+      </c>
       <c r="D941" s="6" t="s">
         <v>20</v>
       </c>
@@ -27304,8 +28986,12 @@
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="10"/>
-      <c r="B943" s="6"/>
-      <c r="C943" s="6"/>
+      <c r="B943" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C943" s="6" t="s">
+        <v>1093</v>
+      </c>
       <c r="D943" s="6" t="s">
         <v>20</v>
       </c>
@@ -27350,8 +29036,12 @@
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="10"/>
-      <c r="B945" s="6"/>
-      <c r="C945" s="6"/>
+      <c r="B945" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C945" s="6" t="s">
+        <v>337</v>
+      </c>
       <c r="D945" s="6" t="s">
         <v>20</v>
       </c>
@@ -27396,8 +29086,12 @@
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="10"/>
-      <c r="B947" s="6"/>
-      <c r="C947" s="6"/>
+      <c r="B947" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C947" s="6" t="s">
+        <v>1096</v>
+      </c>
       <c r="D947" s="6" t="s">
         <v>20</v>
       </c>
@@ -27442,8 +29136,12 @@
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="10"/>
-      <c r="B949" s="6"/>
-      <c r="C949" s="6"/>
+      <c r="B949" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C949" s="6" t="s">
+        <v>1098</v>
+      </c>
       <c r="D949" s="6" t="s">
         <v>20</v>
       </c>
@@ -27488,8 +29186,12 @@
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="10"/>
-      <c r="B951" s="6"/>
-      <c r="C951" s="6"/>
+      <c r="B951" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C951" s="6" t="s">
+        <v>1100</v>
+      </c>
       <c r="D951" s="6" t="s">
         <v>20</v>
       </c>
@@ -27534,8 +29236,12 @@
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="10"/>
-      <c r="B953" s="6"/>
-      <c r="C953" s="6"/>
+      <c r="B953" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C953" s="6" t="s">
+        <v>1102</v>
+      </c>
       <c r="D953" s="6" t="s">
         <v>20</v>
       </c>
@@ -27580,8 +29286,12 @@
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="10"/>
-      <c r="B955" s="6"/>
-      <c r="C955" s="6"/>
+      <c r="B955" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C955" s="6" t="s">
+        <v>1104</v>
+      </c>
       <c r="D955" s="6" t="s">
         <v>20</v>
       </c>
@@ -27626,8 +29336,12 @@
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="10"/>
-      <c r="B957" s="6"/>
-      <c r="C957" s="6"/>
+      <c r="B957" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C957" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D957" s="6" t="s">
         <v>20</v>
       </c>
@@ -27672,8 +29386,12 @@
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="10"/>
-      <c r="B959" s="6"/>
-      <c r="C959" s="6"/>
+      <c r="B959" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C959" s="6" t="s">
+        <v>1108</v>
+      </c>
       <c r="D959" s="6" t="s">
         <v>20</v>
       </c>
@@ -27716,8 +29434,12 @@
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="10"/>
-      <c r="B961" s="6"/>
-      <c r="C961" s="6"/>
+      <c r="B961" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C961" s="6" t="s">
+        <v>1110</v>
+      </c>
       <c r="D961" s="6" t="s">
         <v>20</v>
       </c>
@@ -27762,8 +29484,12 @@
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="10"/>
-      <c r="B963" s="6"/>
-      <c r="C963" s="6"/>
+      <c r="B963" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C963" s="6" t="s">
+        <v>1112</v>
+      </c>
       <c r="D963" s="6" t="s">
         <v>20</v>
       </c>
@@ -27810,8 +29536,12 @@
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="10"/>
-      <c r="B965" s="6"/>
-      <c r="C965" s="6"/>
+      <c r="B965" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C965" s="6" t="s">
+        <v>1115</v>
+      </c>
       <c r="D965" s="6" t="s">
         <v>20</v>
       </c>
@@ -27829,8 +29559,12 @@
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="10"/>
-      <c r="B966" s="6"/>
-      <c r="C966" s="6"/>
+      <c r="B966" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C966" s="6" t="s">
+        <v>1115</v>
+      </c>
       <c r="D966" s="6" t="s">
         <v>21</v>
       </c>
@@ -27875,8 +29609,12 @@
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="10"/>
-      <c r="B968" s="6"/>
-      <c r="C968" s="6"/>
+      <c r="B968" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C968" s="6" t="s">
+        <v>1117</v>
+      </c>
       <c r="D968" s="6" t="s">
         <v>20</v>
       </c>
@@ -27894,8 +29632,12 @@
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="10"/>
-      <c r="B969" s="6"/>
-      <c r="C969" s="6"/>
+      <c r="B969" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C969" s="6" t="s">
+        <v>1117</v>
+      </c>
       <c r="D969" s="6" t="s">
         <v>21</v>
       </c>
@@ -27940,8 +29682,12 @@
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="10"/>
-      <c r="B971" s="6"/>
-      <c r="C971" s="6"/>
+      <c r="B971" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C971" s="6" t="s">
+        <v>1119</v>
+      </c>
       <c r="D971" s="6" t="s">
         <v>20</v>
       </c>
@@ -27959,8 +29705,12 @@
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="10"/>
-      <c r="B972" s="6"/>
-      <c r="C972" s="6"/>
+      <c r="B972" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C972" s="6" t="s">
+        <v>1119</v>
+      </c>
       <c r="D972" s="6" t="s">
         <v>21</v>
       </c>
@@ -28005,8 +29755,12 @@
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="10"/>
-      <c r="B974" s="6"/>
-      <c r="C974" s="6"/>
+      <c r="B974" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C974" s="6" t="s">
+        <v>1121</v>
+      </c>
       <c r="D974" s="6" t="s">
         <v>20</v>
       </c>
@@ -28024,8 +29778,12 @@
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="10"/>
-      <c r="B975" s="6"/>
-      <c r="C975" s="6"/>
+      <c r="B975" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C975" s="6" t="s">
+        <v>1121</v>
+      </c>
       <c r="D975" s="6" t="s">
         <v>21</v>
       </c>
@@ -28070,8 +29828,12 @@
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="10"/>
-      <c r="B977" s="6"/>
-      <c r="C977" s="6"/>
+      <c r="B977" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C977" s="6" t="s">
+        <v>1123</v>
+      </c>
       <c r="D977" s="6" t="s">
         <v>20</v>
       </c>
@@ -28089,8 +29851,12 @@
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="10"/>
-      <c r="B978" s="6"/>
-      <c r="C978" s="6"/>
+      <c r="B978" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C978" s="6" t="s">
+        <v>1123</v>
+      </c>
       <c r="D978" s="6" t="s">
         <v>21</v>
       </c>
@@ -28135,8 +29901,12 @@
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="10"/>
-      <c r="B980" s="6"/>
-      <c r="C980" s="6"/>
+      <c r="B980" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C980" s="6" t="s">
+        <v>1125</v>
+      </c>
       <c r="D980" s="6" t="s">
         <v>20</v>
       </c>
@@ -28154,8 +29924,12 @@
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="10"/>
-      <c r="B981" s="6"/>
-      <c r="C981" s="6"/>
+      <c r="B981" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C981" s="6" t="s">
+        <v>1125</v>
+      </c>
       <c r="D981" s="6" t="s">
         <v>21</v>
       </c>
@@ -28200,8 +29974,12 @@
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="10"/>
-      <c r="B983" s="6"/>
-      <c r="C983" s="6"/>
+      <c r="B983" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C983" s="6" t="s">
+        <v>1127</v>
+      </c>
       <c r="D983" s="6" t="s">
         <v>20</v>
       </c>
@@ -28219,8 +29997,12 @@
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="10"/>
-      <c r="B984" s="6"/>
-      <c r="C984" s="6"/>
+      <c r="B984" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C984" s="6" t="s">
+        <v>1127</v>
+      </c>
       <c r="D984" s="6" t="s">
         <v>21</v>
       </c>
@@ -28265,8 +30047,12 @@
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="10"/>
-      <c r="B986" s="6"/>
-      <c r="C986" s="6"/>
+      <c r="B986" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C986" s="6" t="s">
+        <v>1129</v>
+      </c>
       <c r="D986" s="6" t="s">
         <v>20</v>
       </c>
@@ -28284,8 +30070,12 @@
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="10"/>
-      <c r="B987" s="6"/>
-      <c r="C987" s="6"/>
+      <c r="B987" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C987" s="6" t="s">
+        <v>1129</v>
+      </c>
       <c r="D987" s="6" t="s">
         <v>21</v>
       </c>
@@ -28330,8 +30120,12 @@
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="10"/>
-      <c r="B989" s="6"/>
-      <c r="C989" s="6"/>
+      <c r="B989" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C989" s="6" t="s">
+        <v>1131</v>
+      </c>
       <c r="D989" s="6" t="s">
         <v>20</v>
       </c>
@@ -28349,8 +30143,12 @@
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="10"/>
-      <c r="B990" s="6"/>
-      <c r="C990" s="6"/>
+      <c r="B990" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C990" s="6" t="s">
+        <v>1131</v>
+      </c>
       <c r="D990" s="6" t="s">
         <v>21</v>
       </c>
@@ -28397,8 +30195,12 @@
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="10"/>
-      <c r="B992" s="6"/>
-      <c r="C992" s="6"/>
+      <c r="B992" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C992" s="6" t="s">
+        <v>930</v>
+      </c>
       <c r="D992" s="6" t="s">
         <v>20</v>
       </c>
@@ -28416,8 +30218,12 @@
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="10"/>
-      <c r="B993" s="6"/>
-      <c r="C993" s="6"/>
+      <c r="B993" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C993" s="6" t="s">
+        <v>930</v>
+      </c>
       <c r="D993" s="6" t="s">
         <v>21</v>
       </c>
@@ -28462,8 +30268,12 @@
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="10"/>
-      <c r="B995" s="6"/>
-      <c r="C995" s="6"/>
+      <c r="B995" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C995" s="6" t="s">
+        <v>1135</v>
+      </c>
       <c r="D995" s="6" t="s">
         <v>20</v>
       </c>
@@ -28481,8 +30291,12 @@
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="10"/>
-      <c r="B996" s="6"/>
-      <c r="C996" s="6"/>
+      <c r="B996" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C996" s="6" t="s">
+        <v>1135</v>
+      </c>
       <c r="D996" s="6" t="s">
         <v>21</v>
       </c>
@@ -28527,8 +30341,12 @@
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="10"/>
-      <c r="B998" s="6"/>
-      <c r="C998" s="6"/>
+      <c r="B998" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C998" s="6" t="s">
+        <v>1137</v>
+      </c>
       <c r="D998" s="6" t="s">
         <v>20</v>
       </c>
@@ -28546,8 +30364,12 @@
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="10"/>
-      <c r="B999" s="6"/>
-      <c r="C999" s="6"/>
+      <c r="B999" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C999" s="6" t="s">
+        <v>1137</v>
+      </c>
       <c r="D999" s="6" t="s">
         <v>21</v>
       </c>
@@ -28592,8 +30414,12 @@
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="10"/>
-      <c r="B1001" s="6"/>
-      <c r="C1001" s="6"/>
+      <c r="B1001" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C1001" s="6" t="s">
+        <v>1139</v>
+      </c>
       <c r="D1001" s="6" t="s">
         <v>20</v>
       </c>
@@ -28611,8 +30437,12 @@
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="10"/>
-      <c r="B1002" s="6"/>
-      <c r="C1002" s="6"/>
+      <c r="B1002" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C1002" s="6" t="s">
+        <v>1139</v>
+      </c>
       <c r="D1002" s="6" t="s">
         <v>21</v>
       </c>
@@ -28657,8 +30487,12 @@
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="10"/>
-      <c r="B1004" s="6"/>
-      <c r="C1004" s="6"/>
+      <c r="B1004" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1004" s="6" t="s">
+        <v>1141</v>
+      </c>
       <c r="D1004" s="6" t="s">
         <v>20</v>
       </c>
@@ -28676,8 +30510,12 @@
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="10"/>
-      <c r="B1005" s="6"/>
-      <c r="C1005" s="6"/>
+      <c r="B1005" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1005" s="6" t="s">
+        <v>1141</v>
+      </c>
       <c r="D1005" s="6" t="s">
         <v>21</v>
       </c>
@@ -28722,8 +30560,12 @@
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="10"/>
-      <c r="B1007" s="6"/>
-      <c r="C1007" s="6"/>
+      <c r="B1007" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C1007" s="6" t="s">
+        <v>1047</v>
+      </c>
       <c r="D1007" s="6" t="s">
         <v>20</v>
       </c>
@@ -28741,8 +30583,12 @@
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="10"/>
-      <c r="B1008" s="6"/>
-      <c r="C1008" s="6"/>
+      <c r="B1008" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C1008" s="6" t="s">
+        <v>1047</v>
+      </c>
       <c r="D1008" s="6" t="s">
         <v>21</v>
       </c>
@@ -28787,8 +30633,12 @@
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="10"/>
-      <c r="B1010" s="6"/>
-      <c r="C1010" s="6"/>
+      <c r="B1010" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1010" s="6" t="s">
+        <v>1144</v>
+      </c>
       <c r="D1010" s="6" t="s">
         <v>20</v>
       </c>
@@ -28806,8 +30656,12 @@
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="10"/>
-      <c r="B1011" s="6"/>
-      <c r="C1011" s="6"/>
+      <c r="B1011" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1011" s="6" t="s">
+        <v>1144</v>
+      </c>
       <c r="D1011" s="6" t="s">
         <v>21</v>
       </c>
@@ -28852,8 +30706,12 @@
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="10"/>
-      <c r="B1013" s="6"/>
-      <c r="C1013" s="6"/>
+      <c r="B1013" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1013" s="6" t="s">
+        <v>1146</v>
+      </c>
       <c r="D1013" s="6" t="s">
         <v>20</v>
       </c>
@@ -28871,8 +30729,12 @@
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="10"/>
-      <c r="B1014" s="6"/>
-      <c r="C1014" s="6"/>
+      <c r="B1014" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1014" s="6" t="s">
+        <v>1146</v>
+      </c>
       <c r="D1014" s="6" t="s">
         <v>21</v>
       </c>
@@ -28917,8 +30779,12 @@
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="10"/>
-      <c r="B1016" s="6"/>
-      <c r="C1016" s="6"/>
+      <c r="B1016" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1016" s="6" t="s">
+        <v>1148</v>
+      </c>
       <c r="D1016" s="6" t="s">
         <v>20</v>
       </c>
@@ -28936,8 +30802,12 @@
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="10"/>
-      <c r="B1017" s="6"/>
-      <c r="C1017" s="6"/>
+      <c r="B1017" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1017" s="6" t="s">
+        <v>1148</v>
+      </c>
       <c r="D1017" s="6" t="s">
         <v>21</v>
       </c>
@@ -28982,8 +30852,12 @@
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="10"/>
-      <c r="B1019" s="6"/>
-      <c r="C1019" s="6"/>
+      <c r="B1019" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1019" s="6" t="s">
+        <v>942</v>
+      </c>
       <c r="D1019" s="6" t="s">
         <v>20</v>
       </c>
@@ -29001,8 +30875,12 @@
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="10"/>
-      <c r="B1020" s="6"/>
-      <c r="C1020" s="6"/>
+      <c r="B1020" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1020" s="6" t="s">
+        <v>942</v>
+      </c>
       <c r="D1020" s="6" t="s">
         <v>21</v>
       </c>
@@ -29047,8 +30925,12 @@
     </row>
     <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="10"/>
-      <c r="B1022" s="6"/>
-      <c r="C1022" s="6"/>
+      <c r="B1022" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C1022" s="6" t="s">
+        <v>1045</v>
+      </c>
       <c r="D1022" s="6" t="s">
         <v>20</v>
       </c>
@@ -29066,8 +30948,12 @@
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="10"/>
-      <c r="B1023" s="6"/>
-      <c r="C1023" s="6"/>
+      <c r="B1023" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C1023" s="6" t="s">
+        <v>1045</v>
+      </c>
       <c r="D1023" s="6" t="s">
         <v>21</v>
       </c>
@@ -29112,8 +30998,12 @@
     </row>
     <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="10"/>
-      <c r="B1025" s="6"/>
-      <c r="C1025" s="6"/>
+      <c r="B1025" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1025" s="6" t="s">
+        <v>1152</v>
+      </c>
       <c r="D1025" s="6" t="s">
         <v>20</v>
       </c>
@@ -29131,8 +31021,12 @@
     </row>
     <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="10"/>
-      <c r="B1026" s="6"/>
-      <c r="C1026" s="6"/>
+      <c r="B1026" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1026" s="6" t="s">
+        <v>1152</v>
+      </c>
       <c r="D1026" s="6" t="s">
         <v>21</v>
       </c>
@@ -29177,8 +31071,12 @@
     </row>
     <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="10"/>
-      <c r="B1028" s="6"/>
-      <c r="C1028" s="6"/>
+      <c r="B1028" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1028" s="6" t="s">
+        <v>1154</v>
+      </c>
       <c r="D1028" s="6" t="s">
         <v>20</v>
       </c>
@@ -29196,8 +31094,12 @@
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="10"/>
-      <c r="B1029" s="6"/>
-      <c r="C1029" s="6"/>
+      <c r="B1029" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1029" s="6" t="s">
+        <v>1154</v>
+      </c>
       <c r="D1029" s="6" t="s">
         <v>21</v>
       </c>
@@ -29242,8 +31144,12 @@
     </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="10"/>
-      <c r="B1031" s="6"/>
-      <c r="C1031" s="6"/>
+      <c r="B1031" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C1031" s="6" t="s">
+        <v>1156</v>
+      </c>
       <c r="D1031" s="6" t="s">
         <v>20</v>
       </c>
@@ -29261,8 +31167,12 @@
     </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="10"/>
-      <c r="B1032" s="6"/>
-      <c r="C1032" s="6"/>
+      <c r="B1032" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C1032" s="6" t="s">
+        <v>1156</v>
+      </c>
       <c r="D1032" s="6" t="s">
         <v>21</v>
       </c>
@@ -29307,8 +31217,12 @@
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="10"/>
-      <c r="B1034" s="6"/>
-      <c r="C1034" s="6"/>
+      <c r="B1034" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1034" s="6" t="s">
+        <v>1158</v>
+      </c>
       <c r="D1034" s="6" t="s">
         <v>20</v>
       </c>
@@ -29326,8 +31240,12 @@
     </row>
     <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="10"/>
-      <c r="B1035" s="6"/>
-      <c r="C1035" s="6"/>
+      <c r="B1035" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1035" s="6" t="s">
+        <v>1158</v>
+      </c>
       <c r="D1035" s="6" t="s">
         <v>21</v>
       </c>
@@ -29372,8 +31290,12 @@
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="10"/>
-      <c r="B1037" s="6"/>
-      <c r="C1037" s="6"/>
+      <c r="B1037" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1037" s="6" t="s">
+        <v>1160</v>
+      </c>
       <c r="D1037" s="6" t="s">
         <v>20</v>
       </c>
@@ -29391,8 +31313,12 @@
     </row>
     <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="10"/>
-      <c r="B1038" s="6"/>
-      <c r="C1038" s="6"/>
+      <c r="B1038" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1038" s="6" t="s">
+        <v>1160</v>
+      </c>
       <c r="D1038" s="6" t="s">
         <v>21</v>
       </c>
@@ -29437,8 +31363,12 @@
     </row>
     <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="10"/>
-      <c r="B1040" s="6"/>
-      <c r="C1040" s="6"/>
+      <c r="B1040" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1040" s="6" t="s">
+        <v>928</v>
+      </c>
       <c r="D1040" s="6" t="s">
         <v>20</v>
       </c>
@@ -29456,8 +31386,12 @@
     </row>
     <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="10"/>
-      <c r="B1041" s="6"/>
-      <c r="C1041" s="6"/>
+      <c r="B1041" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1041" s="6" t="s">
+        <v>928</v>
+      </c>
       <c r="D1041" s="6" t="s">
         <v>21</v>
       </c>
@@ -29502,8 +31436,12 @@
     </row>
     <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="10"/>
-      <c r="B1043" s="6"/>
-      <c r="C1043" s="6"/>
+      <c r="B1043" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1043" s="6" t="s">
+        <v>1163</v>
+      </c>
       <c r="D1043" s="6" t="s">
         <v>20</v>
       </c>
@@ -29521,8 +31459,12 @@
     </row>
     <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="10"/>
-      <c r="B1044" s="6"/>
-      <c r="C1044" s="6"/>
+      <c r="B1044" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1044" s="6" t="s">
+        <v>1163</v>
+      </c>
       <c r="D1044" s="6" t="s">
         <v>21</v>
       </c>
@@ -29866,8 +31808,12 @@
     </row>
     <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="10"/>
-      <c r="B1057" s="6"/>
-      <c r="C1057" s="6"/>
+      <c r="B1057" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1057" s="6" t="s">
+        <v>1189</v>
+      </c>
       <c r="D1057" s="6" t="s">
         <v>20</v>
       </c>
@@ -29885,8 +31831,12 @@
     </row>
     <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="10"/>
-      <c r="B1058" s="6"/>
-      <c r="C1058" s="6"/>
+      <c r="B1058" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1058" s="6" t="s">
+        <v>1189</v>
+      </c>
       <c r="D1058" s="6" t="s">
         <v>21</v>
       </c>
@@ -29931,8 +31881,12 @@
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="10"/>
-      <c r="B1060" s="6"/>
-      <c r="C1060" s="6"/>
+      <c r="B1060" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C1060" s="6" t="s">
+        <v>1191</v>
+      </c>
       <c r="D1060" s="6" t="s">
         <v>20</v>
       </c>
@@ -29950,8 +31904,12 @@
     </row>
     <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="10"/>
-      <c r="B1061" s="6"/>
-      <c r="C1061" s="6"/>
+      <c r="B1061" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C1061" s="6" t="s">
+        <v>1191</v>
+      </c>
       <c r="D1061" s="6" t="s">
         <v>21</v>
       </c>
@@ -29996,8 +31954,12 @@
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="10"/>
-      <c r="B1063" s="6"/>
-      <c r="C1063" s="6"/>
+      <c r="B1063" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1063" s="6" t="s">
+        <v>1193</v>
+      </c>
       <c r="D1063" s="6" t="s">
         <v>20</v>
       </c>
@@ -30015,8 +31977,12 @@
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="10"/>
-      <c r="B1064" s="6"/>
-      <c r="C1064" s="6"/>
+      <c r="B1064" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1064" s="6" t="s">
+        <v>1193</v>
+      </c>
       <c r="D1064" s="6" t="s">
         <v>21</v>
       </c>
@@ -30061,8 +32027,12 @@
     </row>
     <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="10"/>
-      <c r="B1066" s="6"/>
-      <c r="C1066" s="6"/>
+      <c r="B1066" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1066" s="6" t="s">
+        <v>1195</v>
+      </c>
       <c r="D1066" s="6" t="s">
         <v>20</v>
       </c>
@@ -30080,8 +32050,12 @@
     </row>
     <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="10"/>
-      <c r="B1067" s="6"/>
-      <c r="C1067" s="6"/>
+      <c r="B1067" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1067" s="6" t="s">
+        <v>1195</v>
+      </c>
       <c r="D1067" s="6" t="s">
         <v>21</v>
       </c>
@@ -30126,8 +32100,12 @@
     </row>
     <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="10"/>
-      <c r="B1069" s="6"/>
-      <c r="C1069" s="6"/>
+      <c r="B1069" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C1069" s="6" t="s">
+        <v>1197</v>
+      </c>
       <c r="D1069" s="6" t="s">
         <v>20</v>
       </c>
@@ -30145,8 +32123,12 @@
     </row>
     <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="10"/>
-      <c r="B1070" s="6"/>
-      <c r="C1070" s="6"/>
+      <c r="B1070" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C1070" s="6" t="s">
+        <v>1197</v>
+      </c>
       <c r="D1070" s="6" t="s">
         <v>21</v>
       </c>
@@ -30191,8 +32173,12 @@
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="10"/>
-      <c r="B1072" s="6"/>
-      <c r="C1072" s="6"/>
+      <c r="B1072" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C1072" s="6" t="s">
+        <v>1199</v>
+      </c>
       <c r="D1072" s="6" t="s">
         <v>20</v>
       </c>
@@ -30210,8 +32196,12 @@
     </row>
     <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="10"/>
-      <c r="B1073" s="6"/>
-      <c r="C1073" s="6"/>
+      <c r="B1073" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C1073" s="6" t="s">
+        <v>1199</v>
+      </c>
       <c r="D1073" s="6" t="s">
         <v>21</v>
       </c>
@@ -30256,8 +32246,12 @@
     </row>
     <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="10"/>
-      <c r="B1075" s="6"/>
-      <c r="C1075" s="6"/>
+      <c r="B1075" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C1075" s="6" t="s">
+        <v>1201</v>
+      </c>
       <c r="D1075" s="6" t="s">
         <v>20</v>
       </c>
@@ -30275,8 +32269,12 @@
     </row>
     <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="10"/>
-      <c r="B1076" s="6"/>
-      <c r="C1076" s="6"/>
+      <c r="B1076" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C1076" s="6" t="s">
+        <v>1201</v>
+      </c>
       <c r="D1076" s="6" t="s">
         <v>21</v>
       </c>
@@ -30321,8 +32319,12 @@
     </row>
     <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="10"/>
-      <c r="B1078" s="6"/>
-      <c r="C1078" s="6"/>
+      <c r="B1078" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1078" s="6" t="s">
+        <v>1203</v>
+      </c>
       <c r="D1078" s="6" t="s">
         <v>20</v>
       </c>
@@ -30340,8 +32342,12 @@
     </row>
     <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="10"/>
-      <c r="B1079" s="6"/>
-      <c r="C1079" s="6"/>
+      <c r="B1079" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1079" s="6" t="s">
+        <v>1203</v>
+      </c>
       <c r="D1079" s="6" t="s">
         <v>21</v>
       </c>
@@ -30386,8 +32392,12 @@
     </row>
     <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="10"/>
-      <c r="B1081" s="6"/>
-      <c r="C1081" s="6"/>
+      <c r="B1081" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1081" s="6" t="s">
+        <v>1205</v>
+      </c>
       <c r="D1081" s="6" t="s">
         <v>20</v>
       </c>
@@ -30405,8 +32415,12 @@
     </row>
     <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="10"/>
-      <c r="B1082" s="6"/>
-      <c r="C1082" s="6"/>
+      <c r="B1082" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1082" s="6" t="s">
+        <v>1205</v>
+      </c>
       <c r="D1082" s="6" t="s">
         <v>21</v>
       </c>
@@ -30453,8 +32467,12 @@
     </row>
     <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="10"/>
-      <c r="B1084" s="6"/>
-      <c r="C1084" s="6"/>
+      <c r="B1084" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1084" s="6" t="s">
+        <v>1208</v>
+      </c>
       <c r="D1084" s="6" t="s">
         <v>20</v>
       </c>
@@ -30476,8 +32494,12 @@
     </row>
     <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="10"/>
-      <c r="B1085" s="6"/>
-      <c r="C1085" s="6"/>
+      <c r="B1085" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1085" s="6" t="s">
+        <v>1208</v>
+      </c>
       <c r="D1085" s="6" t="s">
         <v>1210</v>
       </c>
@@ -30526,8 +32548,12 @@
     </row>
     <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="10"/>
-      <c r="B1087" s="6"/>
-      <c r="C1087" s="6"/>
+      <c r="B1087" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1087" s="6" t="s">
+        <v>1213</v>
+      </c>
       <c r="D1087" s="6" t="s">
         <v>20</v>
       </c>
@@ -30549,8 +32575,12 @@
     </row>
     <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="10"/>
-      <c r="B1088" s="6"/>
-      <c r="C1088" s="6"/>
+      <c r="B1088" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1088" s="6" t="s">
+        <v>1213</v>
+      </c>
       <c r="D1088" s="6" t="s">
         <v>1210</v>
       </c>
@@ -30599,8 +32629,12 @@
     </row>
     <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="10"/>
-      <c r="B1090" s="6"/>
-      <c r="C1090" s="6"/>
+      <c r="B1090" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1090" s="6" t="s">
+        <v>1215</v>
+      </c>
       <c r="D1090" s="6" t="s">
         <v>20</v>
       </c>
@@ -30622,8 +32656,12 @@
     </row>
     <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="10"/>
-      <c r="B1091" s="6"/>
-      <c r="C1091" s="6"/>
+      <c r="B1091" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1091" s="6" t="s">
+        <v>1215</v>
+      </c>
       <c r="D1091" s="6" t="s">
         <v>1210</v>
       </c>
@@ -30672,8 +32710,12 @@
     </row>
     <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="10"/>
-      <c r="B1093" s="6"/>
-      <c r="C1093" s="6"/>
+      <c r="B1093" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1093" s="6" t="s">
+        <v>1217</v>
+      </c>
       <c r="D1093" s="6" t="s">
         <v>20</v>
       </c>
@@ -30695,8 +32737,12 @@
     </row>
     <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="10"/>
-      <c r="B1094" s="6"/>
-      <c r="C1094" s="6"/>
+      <c r="B1094" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1094" s="6" t="s">
+        <v>1217</v>
+      </c>
       <c r="D1094" s="6" t="s">
         <v>1210</v>
       </c>
@@ -30745,8 +32791,12 @@
     </row>
     <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="10"/>
-      <c r="B1096" s="6"/>
-      <c r="C1096" s="6"/>
+      <c r="B1096" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1096" s="6" t="s">
+        <v>1219</v>
+      </c>
       <c r="D1096" s="6" t="s">
         <v>20</v>
       </c>
@@ -30768,8 +32818,12 @@
     </row>
     <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="10"/>
-      <c r="B1097" s="6"/>
-      <c r="C1097" s="6"/>
+      <c r="B1097" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1097" s="6" t="s">
+        <v>1219</v>
+      </c>
       <c r="D1097" s="6" t="s">
         <v>1210</v>
       </c>
@@ -30818,8 +32872,12 @@
     </row>
     <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="10"/>
-      <c r="B1099" s="6"/>
-      <c r="C1099" s="6"/>
+      <c r="B1099" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1099" s="6" t="s">
+        <v>1221</v>
+      </c>
       <c r="D1099" s="6" t="s">
         <v>20</v>
       </c>
@@ -30841,8 +32899,12 @@
     </row>
     <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="10"/>
-      <c r="B1100" s="6"/>
-      <c r="C1100" s="6"/>
+      <c r="B1100" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1100" s="6" t="s">
+        <v>1221</v>
+      </c>
       <c r="D1100" s="6" t="s">
         <v>1210</v>
       </c>
@@ -30891,8 +32953,12 @@
     </row>
     <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="10"/>
-      <c r="B1102" s="6"/>
-      <c r="C1102" s="6"/>
+      <c r="B1102" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1102" s="6" t="s">
+        <v>1223</v>
+      </c>
       <c r="D1102" s="6" t="s">
         <v>20</v>
       </c>
@@ -30914,8 +32980,12 @@
     </row>
     <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="10"/>
-      <c r="B1103" s="6"/>
-      <c r="C1103" s="6"/>
+      <c r="B1103" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1103" s="6" t="s">
+        <v>1223</v>
+      </c>
       <c r="D1103" s="6" t="s">
         <v>1210</v>
       </c>
@@ -30964,8 +33034,12 @@
     </row>
     <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="10"/>
-      <c r="B1105" s="6"/>
-      <c r="C1105" s="6"/>
+      <c r="B1105" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1105" s="6" t="s">
+        <v>1225</v>
+      </c>
       <c r="D1105" s="6" t="s">
         <v>20</v>
       </c>
@@ -30987,8 +33061,12 @@
     </row>
     <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="10"/>
-      <c r="B1106" s="6"/>
-      <c r="C1106" s="6"/>
+      <c r="B1106" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1106" s="6" t="s">
+        <v>1225</v>
+      </c>
       <c r="D1106" s="6" t="s">
         <v>1210</v>
       </c>
@@ -31037,8 +33115,12 @@
     </row>
     <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="10"/>
-      <c r="B1108" s="6"/>
-      <c r="C1108" s="6"/>
+      <c r="B1108" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C1108" s="6" t="s">
+        <v>1227</v>
+      </c>
       <c r="D1108" s="6" t="s">
         <v>20</v>
       </c>
@@ -31060,8 +33142,12 @@
     </row>
     <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="10"/>
-      <c r="B1109" s="6"/>
-      <c r="C1109" s="6"/>
+      <c r="B1109" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C1109" s="6" t="s">
+        <v>1227</v>
+      </c>
       <c r="D1109" s="6" t="s">
         <v>1210</v>
       </c>
@@ -31789,8 +33875,12 @@
     </row>
     <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="10"/>
-      <c r="B1136" s="6"/>
-      <c r="C1136" s="6"/>
+      <c r="B1136" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1136" s="6" t="s">
+        <v>1279</v>
+      </c>
       <c r="D1136" s="6" t="s">
         <v>20</v>
       </c>
@@ -31835,8 +33925,12 @@
     </row>
     <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="10"/>
-      <c r="B1138" s="6"/>
-      <c r="C1138" s="6"/>
+      <c r="B1138" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C1138" s="6" t="s">
+        <v>1281</v>
+      </c>
       <c r="D1138" s="6" t="s">
         <v>20</v>
       </c>
@@ -31881,8 +33975,12 @@
     </row>
     <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="10"/>
-      <c r="B1140" s="6"/>
-      <c r="C1140" s="6"/>
+      <c r="B1140" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C1140" s="6" t="s">
+        <v>1283</v>
+      </c>
       <c r="D1140" s="6" t="s">
         <v>20</v>
       </c>
@@ -31927,8 +34025,12 @@
     </row>
     <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="10"/>
-      <c r="B1142" s="6"/>
-      <c r="C1142" s="6"/>
+      <c r="B1142" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1142" s="6" t="s">
+        <v>1285</v>
+      </c>
       <c r="D1142" s="6" t="s">
         <v>20</v>
       </c>
@@ -31973,8 +34075,12 @@
     </row>
     <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="10"/>
-      <c r="B1144" s="6"/>
-      <c r="C1144" s="6"/>
+      <c r="B1144" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1144" s="6" t="s">
+        <v>1287</v>
+      </c>
       <c r="D1144" s="6" t="s">
         <v>20</v>
       </c>
@@ -32019,8 +34125,12 @@
     </row>
     <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="10"/>
-      <c r="B1146" s="6"/>
-      <c r="C1146" s="6"/>
+      <c r="B1146" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C1146" s="6" t="s">
+        <v>1289</v>
+      </c>
       <c r="D1146" s="6" t="s">
         <v>20</v>
       </c>
@@ -32065,8 +34175,12 @@
     </row>
     <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="10"/>
-      <c r="B1148" s="6"/>
-      <c r="C1148" s="6"/>
+      <c r="B1148" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1148" s="6" t="s">
+        <v>1291</v>
+      </c>
       <c r="D1148" s="6" t="s">
         <v>20</v>
       </c>
@@ -32111,8 +34225,12 @@
     </row>
     <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="10"/>
-      <c r="B1150" s="6"/>
-      <c r="C1150" s="6"/>
+      <c r="B1150" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C1150" s="6" t="s">
+        <v>1293</v>
+      </c>
       <c r="D1150" s="6" t="s">
         <v>20</v>
       </c>
@@ -32157,8 +34275,12 @@
     </row>
     <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="10"/>
-      <c r="B1152" s="6"/>
-      <c r="C1152" s="6"/>
+      <c r="B1152" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1152" s="6" t="s">
+        <v>1295</v>
+      </c>
       <c r="D1152" s="6" t="s">
         <v>20</v>
       </c>
@@ -32203,8 +34325,12 @@
     </row>
     <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="10"/>
-      <c r="B1154" s="6"/>
-      <c r="C1154" s="6"/>
+      <c r="B1154" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1154" s="6" t="s">
+        <v>1297</v>
+      </c>
       <c r="D1154" s="6" t="s">
         <v>20</v>
       </c>
@@ -32249,8 +34375,12 @@
     </row>
     <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="10"/>
-      <c r="B1156" s="6"/>
-      <c r="C1156" s="6"/>
+      <c r="B1156" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C1156" s="6" t="s">
+        <v>1299</v>
+      </c>
       <c r="D1156" s="6" t="s">
         <v>20</v>
       </c>
@@ -32295,8 +34425,12 @@
     </row>
     <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="10"/>
-      <c r="B1158" s="6"/>
-      <c r="C1158" s="6"/>
+      <c r="B1158" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C1158" s="6" t="s">
+        <v>1301</v>
+      </c>
       <c r="D1158" s="6" t="s">
         <v>20</v>
       </c>
@@ -32343,8 +34477,12 @@
     </row>
     <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="10"/>
-      <c r="B1160" s="6"/>
-      <c r="C1160" s="6"/>
+      <c r="B1160" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1160" s="6" t="s">
+        <v>1304</v>
+      </c>
       <c r="D1160" s="6" t="s">
         <v>20</v>
       </c>
@@ -32389,8 +34527,12 @@
     </row>
     <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="10"/>
-      <c r="B1162" s="6"/>
-      <c r="C1162" s="6"/>
+      <c r="B1162" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C1162" s="6" t="s">
+        <v>1306</v>
+      </c>
       <c r="D1162" s="6" t="s">
         <v>20</v>
       </c>
@@ -32435,8 +34577,12 @@
     </row>
     <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="10"/>
-      <c r="B1164" s="6"/>
-      <c r="C1164" s="6"/>
+      <c r="B1164" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1164" s="6" t="s">
+        <v>1308</v>
+      </c>
       <c r="D1164" s="6" t="s">
         <v>20</v>
       </c>
@@ -32481,8 +34627,12 @@
     </row>
     <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="10"/>
-      <c r="B1166" s="6"/>
-      <c r="C1166" s="6"/>
+      <c r="B1166" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1166" s="6" t="s">
+        <v>1310</v>
+      </c>
       <c r="D1166" s="6" t="s">
         <v>20</v>
       </c>
@@ -32529,8 +34679,12 @@
     </row>
     <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="10"/>
-      <c r="B1168" s="6"/>
-      <c r="C1168" s="6"/>
+      <c r="B1168" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C1168" s="6" t="s">
+        <v>1306</v>
+      </c>
       <c r="D1168" s="6" t="s">
         <v>20</v>
       </c>
@@ -32575,8 +34729,12 @@
     </row>
     <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="10"/>
-      <c r="B1170" s="6"/>
-      <c r="C1170" s="6"/>
+      <c r="B1170" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1170" s="6" t="s">
+        <v>1314</v>
+      </c>
       <c r="D1170" s="6" t="s">
         <v>20</v>
       </c>
@@ -32843,8 +35001,12 @@
     </row>
     <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="10"/>
-      <c r="B1180" s="6"/>
-      <c r="C1180" s="6"/>
+      <c r="B1180" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1180" s="6" t="s">
+        <v>1334</v>
+      </c>
       <c r="D1180" s="6" t="s">
         <v>20</v>
       </c>
@@ -32862,8 +35024,12 @@
     </row>
     <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="10"/>
-      <c r="B1181" s="6"/>
-      <c r="C1181" s="6"/>
+      <c r="B1181" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1181" s="6" t="s">
+        <v>1334</v>
+      </c>
       <c r="D1181" s="6" t="s">
         <v>21</v>
       </c>
@@ -32908,8 +35074,12 @@
     </row>
     <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="10"/>
-      <c r="B1183" s="6"/>
-      <c r="C1183" s="6"/>
+      <c r="B1183" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C1183" s="6" t="s">
+        <v>1336</v>
+      </c>
       <c r="D1183" s="6" t="s">
         <v>20</v>
       </c>
@@ -32927,8 +35097,12 @@
     </row>
     <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="10"/>
-      <c r="B1184" s="6"/>
-      <c r="C1184" s="6"/>
+      <c r="B1184" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C1184" s="6" t="s">
+        <v>1336</v>
+      </c>
       <c r="D1184" s="6" t="s">
         <v>21</v>
       </c>
@@ -32973,8 +35147,12 @@
     </row>
     <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="10"/>
-      <c r="B1186" s="6"/>
-      <c r="C1186" s="6"/>
+      <c r="B1186" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C1186" s="6" t="s">
+        <v>1338</v>
+      </c>
       <c r="D1186" s="6" t="s">
         <v>20</v>
       </c>
@@ -32992,8 +35170,12 @@
     </row>
     <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="10"/>
-      <c r="B1187" s="6"/>
-      <c r="C1187" s="6"/>
+      <c r="B1187" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C1187" s="6" t="s">
+        <v>1338</v>
+      </c>
       <c r="D1187" s="6" t="s">
         <v>21</v>
       </c>
@@ -33038,8 +35220,12 @@
     </row>
     <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="10"/>
-      <c r="B1189" s="6"/>
-      <c r="C1189" s="6"/>
+      <c r="B1189" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1189" s="6" t="s">
+        <v>1340</v>
+      </c>
       <c r="D1189" s="6" t="s">
         <v>20</v>
       </c>
@@ -33057,8 +35243,12 @@
     </row>
     <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="10"/>
-      <c r="B1190" s="6"/>
-      <c r="C1190" s="6"/>
+      <c r="B1190" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1190" s="6" t="s">
+        <v>1340</v>
+      </c>
       <c r="D1190" s="6" t="s">
         <v>21</v>
       </c>
@@ -33103,8 +35293,12 @@
     </row>
     <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="10"/>
-      <c r="B1192" s="6"/>
-      <c r="C1192" s="6"/>
+      <c r="B1192" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1192" s="6" t="s">
+        <v>1342</v>
+      </c>
       <c r="D1192" s="6" t="s">
         <v>20</v>
       </c>
@@ -33122,8 +35316,12 @@
     </row>
     <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="10"/>
-      <c r="B1193" s="6"/>
-      <c r="C1193" s="6"/>
+      <c r="B1193" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1193" s="6" t="s">
+        <v>1342</v>
+      </c>
       <c r="D1193" s="6" t="s">
         <v>21</v>
       </c>
@@ -33170,8 +35368,12 @@
     </row>
     <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="10"/>
-      <c r="B1195" s="6"/>
-      <c r="C1195" s="6"/>
+      <c r="B1195" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C1195" s="6" t="s">
+        <v>1345</v>
+      </c>
       <c r="D1195" s="6" t="s">
         <v>21</v>
       </c>
@@ -33220,8 +35422,12 @@
     </row>
     <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="10"/>
-      <c r="B1197" s="6"/>
-      <c r="C1197" s="6"/>
+      <c r="B1197" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C1197" s="6" t="s">
+        <v>1347</v>
+      </c>
       <c r="D1197" s="6" t="s">
         <v>21</v>
       </c>
@@ -33270,8 +35476,12 @@
     </row>
     <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="10"/>
-      <c r="B1199" s="6"/>
-      <c r="C1199" s="6"/>
+      <c r="B1199" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1199" s="6" t="s">
+        <v>1349</v>
+      </c>
       <c r="D1199" s="6" t="s">
         <v>21</v>
       </c>
@@ -33320,8 +35530,12 @@
     </row>
     <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="10"/>
-      <c r="B1201" s="6"/>
-      <c r="C1201" s="6"/>
+      <c r="B1201" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1201" s="6" t="s">
+        <v>1351</v>
+      </c>
       <c r="D1201" s="6" t="s">
         <v>21</v>
       </c>
@@ -33370,8 +35584,12 @@
     </row>
     <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="10"/>
-      <c r="B1203" s="6"/>
-      <c r="C1203" s="6"/>
+      <c r="B1203" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1203" s="6" t="s">
+        <v>1353</v>
+      </c>
       <c r="D1203" s="6" t="s">
         <v>21</v>
       </c>
@@ -33420,8 +35638,12 @@
     </row>
     <row r="1205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="10"/>
-      <c r="B1205" s="6"/>
-      <c r="C1205" s="6"/>
+      <c r="B1205" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C1205" s="6" t="s">
+        <v>1355</v>
+      </c>
       <c r="D1205" s="6" t="s">
         <v>21</v>
       </c>
@@ -33470,8 +35692,12 @@
     </row>
     <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="10"/>
-      <c r="B1207" s="6"/>
-      <c r="C1207" s="6"/>
+      <c r="B1207" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1207" s="6" t="s">
+        <v>1357</v>
+      </c>
       <c r="D1207" s="6" t="s">
         <v>21</v>
       </c>
@@ -33520,8 +35746,12 @@
     </row>
     <row r="1209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="10"/>
-      <c r="B1209" s="6"/>
-      <c r="C1209" s="6"/>
+      <c r="B1209" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1209" s="6" t="s">
+        <v>1359</v>
+      </c>
       <c r="D1209" s="6" t="s">
         <v>21</v>
       </c>
@@ -33572,8 +35802,12 @@
     </row>
     <row r="1211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="10"/>
-      <c r="B1211" s="6"/>
-      <c r="C1211" s="6"/>
+      <c r="B1211" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C1211" s="6" t="s">
+        <v>1362</v>
+      </c>
       <c r="D1211" s="6" t="s">
         <v>21</v>
       </c>
@@ -33618,8 +35852,12 @@
     </row>
     <row r="1213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="10"/>
-      <c r="B1213" s="6"/>
-      <c r="C1213" s="6"/>
+      <c r="B1213" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1213" s="6" t="s">
+        <v>1119</v>
+      </c>
       <c r="D1213" s="6" t="s">
         <v>21</v>
       </c>
@@ -33666,8 +35904,12 @@
     </row>
     <row r="1215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="5"/>
-      <c r="B1215" s="6"/>
-      <c r="C1215" s="6"/>
+      <c r="B1215" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C1215" s="6" t="s">
+        <v>1362</v>
+      </c>
       <c r="D1215" s="6" t="s">
         <v>21</v>
       </c>
@@ -33708,8 +35950,12 @@
     </row>
     <row r="1217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="5"/>
-      <c r="B1217" s="6"/>
-      <c r="C1217" s="6"/>
+      <c r="B1217" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1217" s="6" t="s">
+        <v>1119</v>
+      </c>
       <c r="D1217" s="6" t="s">
         <v>21</v>
       </c>
@@ -33754,8 +36000,12 @@
     </row>
     <row r="1219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="5"/>
-      <c r="B1219" s="9"/>
-      <c r="C1219" s="9"/>
+      <c r="B1219" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C1219" s="6" t="s">
+        <v>1365</v>
+      </c>
       <c r="D1219" s="9" t="s">
         <v>21</v>
       </c>
@@ -33800,8 +36050,12 @@
     </row>
     <row r="1221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="5"/>
-      <c r="B1221" s="9"/>
-      <c r="C1221" s="9"/>
+      <c r="B1221" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1221" s="16" t="s">
+        <v>1367</v>
+      </c>
       <c r="D1221" s="9" t="s">
         <v>21</v>
       </c>
@@ -33846,8 +36100,12 @@
     </row>
     <row r="1223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="5"/>
-      <c r="B1223" s="9"/>
-      <c r="C1223" s="16"/>
+      <c r="B1223" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1223" s="9" t="s">
+        <v>1369</v>
+      </c>
       <c r="D1223" s="9" t="s">
         <v>21</v>
       </c>
@@ -33892,8 +36150,12 @@
     </row>
     <row r="1225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="5"/>
-      <c r="B1225" s="9"/>
-      <c r="C1225" s="16"/>
+      <c r="B1225" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1225" s="9" t="s">
+        <v>1371</v>
+      </c>
       <c r="D1225" s="9" t="s">
         <v>21</v>
       </c>
@@ -33937,8 +36199,12 @@
       </c>
     </row>
     <row r="1227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1227" s="9"/>
-      <c r="C1227" s="9"/>
+      <c r="B1227" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1227" s="9" t="s">
+        <v>1373</v>
+      </c>
       <c r="D1227" s="9" t="s">
         <v>21</v>
       </c>
@@ -33985,8 +36251,12 @@
     </row>
     <row r="1229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="5"/>
-      <c r="B1229" s="9"/>
-      <c r="C1229" s="9"/>
+      <c r="B1229" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1229" s="9" t="s">
+        <v>1376</v>
+      </c>
       <c r="D1229" s="9" t="s">
         <v>20</v>
       </c>
@@ -34008,8 +36278,12 @@
     </row>
     <row r="1230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="5"/>
-      <c r="B1230" s="9"/>
-      <c r="C1230" s="9"/>
+      <c r="B1230" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1230" s="9" t="s">
+        <v>1376</v>
+      </c>
       <c r="D1230" s="9" t="s">
         <v>21</v>
       </c>
@@ -34054,8 +36328,12 @@
     </row>
     <row r="1232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="5"/>
-      <c r="B1232" s="9"/>
-      <c r="C1232" s="9"/>
+      <c r="B1232" s="9" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1232" s="9" t="s">
+        <v>1378</v>
+      </c>
       <c r="D1232" s="9" t="s">
         <v>20</v>
       </c>
@@ -34077,8 +36355,12 @@
     </row>
     <row r="1233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="5"/>
-      <c r="B1233" s="9"/>
-      <c r="C1233" s="9"/>
+      <c r="B1233" s="9" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1233" s="9" t="s">
+        <v>1378</v>
+      </c>
       <c r="D1233" s="9" t="s">
         <v>21</v>
       </c>
@@ -34123,8 +36405,12 @@
     </row>
     <row r="1235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="5"/>
-      <c r="B1235" s="9"/>
-      <c r="C1235" s="9"/>
+      <c r="B1235" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C1235" s="9" t="s">
+        <v>1380</v>
+      </c>
       <c r="D1235" s="9" t="s">
         <v>20</v>
       </c>
@@ -34146,8 +36432,12 @@
     </row>
     <row r="1236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="5"/>
-      <c r="B1236" s="9"/>
-      <c r="C1236" s="9"/>
+      <c r="B1236" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C1236" s="9" t="s">
+        <v>1380</v>
+      </c>
       <c r="D1236" s="9" t="s">
         <v>21</v>
       </c>
@@ -34192,8 +36482,12 @@
     </row>
     <row r="1238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="5"/>
-      <c r="B1238" s="9"/>
-      <c r="C1238" s="9"/>
+      <c r="B1238" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1238" s="9" t="s">
+        <v>1382</v>
+      </c>
       <c r="D1238" s="9" t="s">
         <v>20</v>
       </c>
@@ -34215,8 +36509,12 @@
     </row>
     <row r="1239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="5"/>
-      <c r="B1239" s="9"/>
-      <c r="C1239" s="9"/>
+      <c r="B1239" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1239" s="9" t="s">
+        <v>1382</v>
+      </c>
       <c r="D1239" s="9" t="s">
         <v>21</v>
       </c>
@@ -34261,8 +36559,12 @@
     </row>
     <row r="1241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="5"/>
-      <c r="B1241" s="9"/>
-      <c r="C1241" s="9"/>
+      <c r="B1241" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C1241" s="9" t="s">
+        <v>1384</v>
+      </c>
       <c r="D1241" s="9" t="s">
         <v>20</v>
       </c>
@@ -34284,8 +36586,12 @@
     </row>
     <row r="1242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="5"/>
-      <c r="B1242" s="9"/>
-      <c r="C1242" s="9"/>
+      <c r="B1242" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C1242" s="9" t="s">
+        <v>1384</v>
+      </c>
       <c r="D1242" s="9" t="s">
         <v>21</v>
       </c>
@@ -34330,8 +36636,12 @@
     </row>
     <row r="1244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="5"/>
-      <c r="B1244" s="16"/>
-      <c r="C1244" s="16"/>
+      <c r="B1244" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C1244" s="9" t="s">
+        <v>1386</v>
+      </c>
       <c r="D1244" s="16" t="s">
         <v>20</v>
       </c>
@@ -34353,8 +36663,12 @@
     </row>
     <row r="1245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="5"/>
-      <c r="B1245" s="9"/>
-      <c r="C1245" s="9"/>
+      <c r="B1245" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C1245" s="9" t="s">
+        <v>1386</v>
+      </c>
       <c r="D1245" s="9" t="s">
         <v>21</v>
       </c>
@@ -34399,8 +36713,12 @@
     </row>
     <row r="1247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="5"/>
-      <c r="B1247" s="9"/>
-      <c r="C1247" s="9"/>
+      <c r="B1247" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C1247" s="9" t="s">
+        <v>1388</v>
+      </c>
       <c r="D1247" s="16" t="s">
         <v>20</v>
       </c>
@@ -34422,8 +36740,12 @@
     </row>
     <row r="1248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1248" s="5"/>
-      <c r="B1248" s="9"/>
-      <c r="C1248" s="9"/>
+      <c r="B1248" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C1248" s="9" t="s">
+        <v>1388</v>
+      </c>
       <c r="D1248" s="9" t="s">
         <v>21</v>
       </c>
@@ -34468,8 +36790,12 @@
     </row>
     <row r="1250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1250" s="5"/>
-      <c r="B1250" s="16"/>
-      <c r="C1250" s="9"/>
+      <c r="B1250" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C1250" s="9" t="s">
+        <v>1390</v>
+      </c>
       <c r="D1250" s="16" t="s">
         <v>20</v>
       </c>
@@ -34491,8 +36817,12 @@
     </row>
     <row r="1251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1251" s="5"/>
-      <c r="B1251" s="9"/>
-      <c r="C1251" s="9"/>
+      <c r="B1251" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C1251" s="9" t="s">
+        <v>1390</v>
+      </c>
       <c r="D1251" s="16" t="s">
         <v>21</v>
       </c>
@@ -34537,8 +36867,12 @@
     </row>
     <row r="1253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1253" s="5"/>
-      <c r="B1253" s="9"/>
-      <c r="C1253" s="9"/>
+      <c r="B1253" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C1253" s="9" t="s">
+        <v>1392</v>
+      </c>
       <c r="D1253" s="16" t="s">
         <v>20</v>
       </c>
@@ -34560,8 +36894,12 @@
     </row>
     <row r="1254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1254" s="5"/>
-      <c r="B1254" s="9"/>
-      <c r="C1254" s="9"/>
+      <c r="B1254" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C1254" s="9" t="s">
+        <v>1392</v>
+      </c>
       <c r="D1254" s="16" t="s">
         <v>21</v>
       </c>
@@ -34606,8 +36944,12 @@
     </row>
     <row r="1256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="5"/>
-      <c r="B1256" s="9"/>
-      <c r="C1256" s="9"/>
+      <c r="B1256" s="16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C1256" s="16" t="s">
+        <v>1394</v>
+      </c>
       <c r="D1256" s="16" t="s">
         <v>20</v>
       </c>
@@ -34629,8 +36971,12 @@
     </row>
     <row r="1257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1257" s="5"/>
-      <c r="B1257" s="16"/>
-      <c r="C1257" s="16"/>
+      <c r="B1257" s="16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C1257" s="16" t="s">
+        <v>1394</v>
+      </c>
       <c r="D1257" s="16" t="s">
         <v>21</v>
       </c>
@@ -34675,8 +37021,12 @@
     </row>
     <row r="1259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1259" s="5"/>
-      <c r="B1259" s="16"/>
-      <c r="C1259" s="16"/>
+      <c r="B1259" s="16" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C1259" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="D1259" s="16" t="s">
         <v>20</v>
       </c>
@@ -34698,8 +37048,12 @@
     </row>
     <row r="1260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1260" s="5"/>
-      <c r="B1260" s="16"/>
-      <c r="C1260" s="9"/>
+      <c r="B1260" s="16" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C1260" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="D1260" s="16" t="s">
         <v>21</v>
       </c>
@@ -35018,8 +37372,12 @@
     </row>
     <row r="1272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1272" s="10"/>
-      <c r="B1272" s="6"/>
-      <c r="C1272" s="6"/>
+      <c r="B1272" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1272" s="6" t="s">
+        <v>1419</v>
+      </c>
       <c r="D1272" s="6" t="s">
         <v>21</v>
       </c>
@@ -35041,8 +37399,12 @@
     </row>
     <row r="1273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1273" s="10"/>
-      <c r="B1273" s="6"/>
-      <c r="C1273" s="6"/>
+      <c r="B1273" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1273" s="6" t="s">
+        <v>1419</v>
+      </c>
       <c r="D1273" s="6"/>
       <c r="E1273" s="6"/>
       <c r="F1273" s="11"/>
@@ -35083,8 +37445,12 @@
     </row>
     <row r="1275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1275" s="10"/>
-      <c r="B1275" s="6"/>
-      <c r="C1275" s="6"/>
+      <c r="B1275" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C1275" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="D1275" s="6" t="s">
         <v>21</v>
       </c>
@@ -35106,8 +37472,12 @@
     </row>
     <row r="1276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1276" s="10"/>
-      <c r="B1276" s="6"/>
-      <c r="C1276" s="6"/>
+      <c r="B1276" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C1276" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="D1276" s="6"/>
       <c r="E1276" s="6"/>
       <c r="F1276" s="11"/>
@@ -35148,8 +37518,12 @@
     </row>
     <row r="1278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1278" s="10"/>
-      <c r="B1278" s="6"/>
-      <c r="C1278" s="6"/>
+      <c r="B1278" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C1278" s="6" t="s">
+        <v>1422</v>
+      </c>
       <c r="D1278" s="6" t="s">
         <v>21</v>
       </c>
@@ -35171,8 +37545,12 @@
     </row>
     <row r="1279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1279" s="10"/>
-      <c r="B1279" s="6"/>
-      <c r="C1279" s="6"/>
+      <c r="B1279" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C1279" s="6" t="s">
+        <v>1422</v>
+      </c>
       <c r="D1279" s="6"/>
       <c r="E1279" s="6"/>
       <c r="F1279" s="11"/>
@@ -35213,8 +37591,12 @@
     </row>
     <row r="1281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1281" s="10"/>
-      <c r="B1281" s="6"/>
-      <c r="C1281" s="6"/>
+      <c r="B1281" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1281" s="6" t="s">
+        <v>1424</v>
+      </c>
       <c r="D1281" s="6" t="s">
         <v>21</v>
       </c>
@@ -35236,8 +37618,12 @@
     </row>
     <row r="1282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1282" s="10"/>
-      <c r="B1282" s="6"/>
-      <c r="C1282" s="6"/>
+      <c r="B1282" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1282" s="6" t="s">
+        <v>1424</v>
+      </c>
       <c r="D1282" s="6"/>
       <c r="E1282" s="6"/>
       <c r="F1282" s="11"/>
@@ -35278,8 +37664,12 @@
     </row>
     <row r="1284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1284" s="10"/>
-      <c r="B1284" s="6"/>
-      <c r="C1284" s="6"/>
+      <c r="B1284" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1284" s="6" t="s">
+        <v>1426</v>
+      </c>
       <c r="D1284" s="6" t="s">
         <v>21</v>
       </c>
@@ -35301,8 +37691,12 @@
     </row>
     <row r="1285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1285" s="10"/>
-      <c r="B1285" s="6"/>
-      <c r="C1285" s="6"/>
+      <c r="B1285" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1285" s="6" t="s">
+        <v>1426</v>
+      </c>
       <c r="D1285" s="6"/>
       <c r="E1285" s="6"/>
       <c r="F1285" s="11"/>
@@ -35343,8 +37737,12 @@
     </row>
     <row r="1287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1287" s="10"/>
-      <c r="B1287" s="6"/>
-      <c r="C1287" s="6"/>
+      <c r="B1287" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1287" s="6" t="s">
+        <v>1428</v>
+      </c>
       <c r="D1287" s="6" t="s">
         <v>21</v>
       </c>
@@ -35366,8 +37764,12 @@
     </row>
     <row r="1288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1288" s="10"/>
-      <c r="B1288" s="6"/>
-      <c r="C1288" s="6"/>
+      <c r="B1288" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1288" s="6" t="s">
+        <v>1428</v>
+      </c>
       <c r="D1288" s="6"/>
       <c r="E1288" s="6"/>
       <c r="F1288" s="11"/>
@@ -35408,8 +37810,12 @@
     </row>
     <row r="1290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="10"/>
-      <c r="B1290" s="6"/>
-      <c r="C1290" s="6"/>
+      <c r="B1290" s="6" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1290" s="6" t="s">
+        <v>1430</v>
+      </c>
       <c r="D1290" s="6" t="s">
         <v>21</v>
       </c>
@@ -35431,8 +37837,12 @@
     </row>
     <row r="1291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1291" s="10"/>
-      <c r="B1291" s="6"/>
-      <c r="C1291" s="6"/>
+      <c r="B1291" s="6" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1291" s="6" t="s">
+        <v>1430</v>
+      </c>
       <c r="D1291" s="6"/>
       <c r="E1291" s="6"/>
       <c r="F1291" s="11"/>
@@ -35473,8 +37883,12 @@
     </row>
     <row r="1293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1293" s="10"/>
-      <c r="B1293" s="6"/>
-      <c r="C1293" s="6"/>
+      <c r="B1293" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C1293" s="6" t="s">
+        <v>1432</v>
+      </c>
       <c r="D1293" s="6" t="s">
         <v>21</v>
       </c>
@@ -35496,8 +37910,12 @@
     </row>
     <row r="1294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1294" s="10"/>
-      <c r="B1294" s="6"/>
-      <c r="C1294" s="6"/>
+      <c r="B1294" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C1294" s="6" t="s">
+        <v>1432</v>
+      </c>
       <c r="D1294" s="6"/>
       <c r="E1294" s="6"/>
       <c r="F1294" s="11"/>
@@ -35538,8 +37956,12 @@
     </row>
     <row r="1296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1296" s="10"/>
-      <c r="B1296" s="6"/>
-      <c r="C1296" s="6"/>
+      <c r="B1296" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C1296" s="6" t="s">
+        <v>1434</v>
+      </c>
       <c r="D1296" s="6" t="s">
         <v>21</v>
       </c>
@@ -35561,8 +37983,12 @@
     </row>
     <row r="1297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1297" s="10"/>
-      <c r="B1297" s="6"/>
-      <c r="C1297" s="6"/>
+      <c r="B1297" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C1297" s="6" t="s">
+        <v>1434</v>
+      </c>
       <c r="D1297" s="6"/>
       <c r="E1297" s="6"/>
       <c r="F1297" s="11"/>
@@ -35603,8 +38029,12 @@
     </row>
     <row r="1299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1299" s="10"/>
-      <c r="B1299" s="6"/>
-      <c r="C1299" s="6"/>
+      <c r="B1299" s="6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C1299" s="6" t="s">
+        <v>1436</v>
+      </c>
       <c r="D1299" s="6" t="s">
         <v>21</v>
       </c>
@@ -35626,8 +38056,12 @@
     </row>
     <row r="1300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1300" s="10"/>
-      <c r="B1300" s="6"/>
-      <c r="C1300" s="6"/>
+      <c r="B1300" s="6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C1300" s="6" t="s">
+        <v>1436</v>
+      </c>
       <c r="D1300" s="6"/>
       <c r="E1300" s="6"/>
       <c r="F1300" s="11"/>
@@ -35668,8 +38102,12 @@
     </row>
     <row r="1302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1302" s="10"/>
-      <c r="B1302" s="6"/>
-      <c r="C1302" s="6"/>
+      <c r="B1302" s="6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C1302" s="6" t="s">
+        <v>1438</v>
+      </c>
       <c r="D1302" s="6" t="s">
         <v>21</v>
       </c>
@@ -35718,8 +38156,12 @@
     </row>
     <row r="1304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1304" s="10"/>
-      <c r="B1304" s="6"/>
-      <c r="C1304" s="6"/>
+      <c r="B1304" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C1304" s="6" t="s">
+        <v>1047</v>
+      </c>
       <c r="D1304" s="6" t="s">
         <v>21</v>
       </c>
@@ -35783,8 +38225,12 @@
     </row>
     <row r="1307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1307" s="10"/>
-      <c r="B1307" s="6"/>
-      <c r="C1307" s="6"/>
+      <c r="B1307" s="6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1307" s="6" t="s">
+        <v>1441</v>
+      </c>
       <c r="D1307" s="6" t="s">
         <v>21</v>
       </c>
@@ -37336,8 +39782,12 @@
     </row>
     <row r="1368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1368" s="5"/>
-      <c r="B1368" s="9"/>
-      <c r="C1368" s="9"/>
+      <c r="B1368" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C1368" s="9" t="s">
+        <v>1548</v>
+      </c>
       <c r="D1368" s="9" t="s">
         <v>21</v>
       </c>
